--- a/event_table.xlsx
+++ b/event_table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isabelle\Desktop\Alone v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\Desktop\Alone v2 (python)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59BAC7B-F037-4DD2-89D1-00283BC116A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -88,9 +89,6 @@
     <t>["porte_rouge3"]</t>
   </si>
   <si>
-    <t>["porte_rouge2","porte_rouge3"]</t>
-  </si>
-  <si>
     <t>["porte_mystérieuse"]</t>
   </si>
   <si>
@@ -653,12 +651,15 @@
   </si>
   <si>
     <t>Alors que vous marchez dans ce désert infini. Un événement vient troubler vos divagations. Une petite météorite vient de s'écraser non loin, événement que vous savez pas si rare sur Mars. Vous vous approchez du lieu de l'impact. Vous sentez des vagues d'air brûlant de plus en plus intense quand vous vous approchez du cratère.</t>
+  </si>
+  <si>
+    <t>["porte_rouge1", "porte_rouge2","porte_rouge3"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1026,17 +1027,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.42578125" style="3"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="42.140625" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" style="3"/>
     <col min="15" max="15" width="14.5703125" customWidth="1"/>
@@ -1153,22 +1155,22 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
@@ -1178,23 +1180,23 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="Q3" s="4">
         <v>0</v>
@@ -1210,7 +1212,7 @@
         <v>16</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W3" s="4" t="s">
         <v>17</v>
@@ -1219,22 +1221,22 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
@@ -1250,27 +1252,27 @@
         <v>16</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>-1</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="T4" s="4" t="s">
         <v>16</v>
       </c>
@@ -1278,7 +1280,7 @@
         <v>16</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W4" s="4" t="s">
         <v>17</v>
@@ -1287,22 +1289,22 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -1319,7 +1321,7 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="4"/>
@@ -1335,22 +1337,22 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -1363,7 +1365,7 @@
         <v>16</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
@@ -1371,10 +1373,10 @@
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q6" s="4">
         <v>-1</v>
@@ -1383,13 +1385,13 @@
         <v>-3</v>
       </c>
       <c r="S6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="V6" s="4"/>
       <c r="W6" s="4" t="s">
@@ -1399,22 +1401,22 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -1435,10 +1437,10 @@
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q7" s="4">
         <v>0</v>
@@ -1461,22 +1463,22 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -1489,7 +1491,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
@@ -1497,10 +1499,10 @@
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="Q8" s="4">
         <v>0</v>
@@ -1513,10 +1515,10 @@
         <v>16</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W8" s="4" t="s">
         <v>17</v>
@@ -1525,22 +1527,22 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -1550,10 +1552,10 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
@@ -1561,10 +1563,10 @@
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="Q9" s="4">
         <v>-2</v>
@@ -1574,10 +1576,10 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="U9" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4" t="s">
@@ -1587,22 +1589,22 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G10" s="4">
         <v>-2</v>
@@ -1611,13 +1613,13 @@
         <v>-1</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
@@ -1625,10 +1627,10 @@
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="4">
         <v>0</v>
@@ -1641,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4" t="s">
@@ -1651,22 +1653,22 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="G11" s="4">
         <v>2</v>
@@ -1679,7 +1681,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
@@ -1687,10 +1689,10 @@
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="Q11" s="4">
         <v>0</v>
@@ -1703,7 +1705,7 @@
         <v>16</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4" t="s">
@@ -1713,22 +1715,22 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -1741,7 +1743,7 @@
         <v>16</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4" t="s">
@@ -1749,10 +1751,10 @@
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="P12" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="Q12" s="4">
         <v>-1</v>
@@ -1765,10 +1767,10 @@
         <v>16</v>
       </c>
       <c r="U12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="V12" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="W12" s="4" t="s">
         <v>17</v>
@@ -1777,22 +1779,22 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="G13" s="4">
         <v>-1</v>
@@ -1805,7 +1807,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
@@ -1825,22 +1827,22 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -1850,10 +1852,10 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4" t="s">
@@ -1873,22 +1875,22 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -1898,10 +1900,10 @@
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
@@ -1909,10 +1911,10 @@
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q15" s="4">
         <v>0</v>
@@ -1925,7 +1927,7 @@
         <v>16</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V15" s="4"/>
       <c r="W15" s="4" t="s">
@@ -1935,22 +1937,22 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -1966,17 +1968,17 @@
         <v>16</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="Q16" s="4">
         <v>0</v>
@@ -1998,22 +2000,22 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G17" s="4">
         <v>-1</v>
@@ -2034,10 +2036,10 @@
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="P17" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="Q17" s="4">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>16</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W17" s="4" t="s">
         <v>17</v>
@@ -2062,22 +2064,22 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="G18" s="4">
         <v>-1</v>
@@ -2086,7 +2088,7 @@
         <v>-3</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>16</v>
@@ -2100,10 +2102,10 @@
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q18" s="4">
         <v>-2</v>
@@ -2112,7 +2114,7 @@
         <v>-1</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>16</v>
@@ -2128,22 +2130,22 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
@@ -2164,10 +2166,10 @@
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="4">
         <v>0</v>
@@ -2190,22 +2192,22 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
@@ -2226,10 +2228,10 @@
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="4">
         <v>0</v>
@@ -2252,31 +2254,31 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>16</v>
@@ -2290,10 +2292,10 @@
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="4">
         <v>0</v>
@@ -2316,22 +2318,22 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
@@ -2352,10 +2354,10 @@
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q22" s="4">
         <v>0</v>
@@ -2378,13 +2380,13 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G23" s="4">
         <v>0</v>
@@ -2420,13 +2422,13 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
@@ -2472,17 +2474,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.42578125" style="3"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="56.140625" customWidth="1"/>
+    <col min="6" max="6" width="156.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="0.5703125" customWidth="1"/>
+    <col min="10" max="10" width="1.28515625" customWidth="1"/>
+    <col min="11" max="11" width="44.42578125" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
@@ -2594,22 +2601,22 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
@@ -2630,10 +2637,10 @@
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="4">
         <v>0</v>
@@ -2656,22 +2663,22 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" s="4">
         <v>-3</v>
@@ -2684,7 +2691,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
@@ -2692,10 +2699,10 @@
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="4">
         <v>0</v>
@@ -2718,22 +2725,22 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -2742,13 +2749,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
@@ -2756,10 +2763,10 @@
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="4">
         <v>0</v>
@@ -2782,22 +2789,22 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G6" s="4">
         <v>99</v>
@@ -2810,20 +2817,20 @@
         <v>16</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="4">
         <v>0</v>
@@ -2836,7 +2843,7 @@
         <v>16</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V6" s="4"/>
       <c r="W6" s="4" t="s">
@@ -2846,22 +2853,22 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -2874,7 +2881,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
@@ -2882,10 +2889,10 @@
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="Q7" s="4">
         <v>-3</v>
@@ -2898,7 +2905,7 @@
         <v>16</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V7" s="4"/>
       <c r="W7" s="4" t="s">
@@ -2908,22 +2915,22 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="F8" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G8" s="4">
         <v>-3</v>
@@ -2936,20 +2943,20 @@
         <v>16</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="4">
         <v>0</v>
@@ -2962,7 +2969,7 @@
         <v>16</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V8" s="4"/>
       <c r="W8" s="4" t="s">
@@ -2972,22 +2979,22 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>173</v>
       </c>
       <c r="G9" s="4">
         <v>-3</v>
@@ -3000,7 +3007,7 @@
         <v>16</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
@@ -3008,10 +3015,10 @@
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="P9" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>162</v>
       </c>
       <c r="Q9" s="4">
         <v>0</v>
@@ -3024,7 +3031,7 @@
         <v>16</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4" t="s">
@@ -3034,22 +3041,22 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>153</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>154</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -3059,10 +3066,10 @@
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
@@ -3082,22 +3089,22 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -3130,22 +3137,22 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>175</v>
-      </c>
       <c r="F12" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G12" s="4">
         <v>5</v>
@@ -3162,16 +3169,16 @@
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q12" s="4">
         <v>-3</v>
@@ -3188,7 +3195,7 @@
       </c>
       <c r="V12" s="4"/>
       <c r="W12" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X12" s="4"/>
     </row>
@@ -3329,7 +3336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3343,10 +3350,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>7</v>
@@ -3355,18 +3362,18 @@
         <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
@@ -3383,10 +3390,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -3403,10 +3410,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -3423,10 +3430,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -3443,10 +3450,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -3463,10 +3470,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
@@ -3483,10 +3490,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>

--- a/event_table.xlsx
+++ b/event_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\Desktop\Alone v2 (python)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Desktop\Python\autre\alone-terminal-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59BAC7B-F037-4DD2-89D1-00283BC116A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19BECED-1B66-4EEA-990E-D1897F03C704}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="217">
   <si>
     <t>zone</t>
   </si>
@@ -128,9 +128,6 @@
     <t>intro3</t>
   </si>
   <si>
-    <t>Vous investiguez la table, vous pensez avoir repéré un objet intéressant, bien que la plupart soit recouverte d'un fluide ressemblant à de l'huile de moteur.</t>
-  </si>
-  <si>
     <t>clef_orange</t>
   </si>
   <si>
@@ -654,23 +651,43 @@
   </si>
   <si>
     <t>["porte_rouge1", "porte_rouge2","porte_rouge3"]</t>
+  </si>
+  <si>
+    <t>Vous décidez de suivre la ligne verte.</t>
+  </si>
+  <si>
+    <t>Vous décidez de suivre la ligne rouge.</t>
+  </si>
+  <si>
+    <t>[["lab","random","random_vert_1"]]</t>
+  </si>
+  <si>
+    <t>Vous investiguez la table, vous pensez avoir repéré un objet intéressant, bien que la plupart soit recouverts d'un fluide ressemblant à de l'huile de moteur.</t>
+  </si>
+  <si>
+    <t>[["lab","random","random_rouge_1"]]</t>
+  </si>
+  <si>
+    <t>random_vert_1</t>
+  </si>
+  <si>
+    <t>Le couloir dans lequel vous entrez vous paraît tout à fait banal, à l'exception de cette large ligne rouge peinte sur le mur. Le couloir s'enfonce tout droit dans les profondeurs du complexe et la ligne s'agrandit progressivement jusqu'à recouvrir l'intégralité du couloir d'un rouge vif. Soudain sans prévenir, la lumière s'éteint et vous entendez un chuinttement que vous reconnaissez entre mille ; de l'oxygène c'était trop beau pour durer. Déboussolé par ces événements innatendus il va pourtant falloir continuer ... Vous décidez de marcher au hasard.</t>
+  </si>
+  <si>
+    <t>Vos yeux mettent quelques secondes à s'habituer à la semi-pénombre, agréable après l'éblouissement du désert. Votre enthousiasme précédent est bien retombé, il vous faut maintenant explorer ce lieu inconnu et les dangers du désert vous bien mis en garde ; vous êtes en zone hostile. Au fond de la pièce deux portes, l'une ouvre sur une ligne verte serpentant le long du mur et s'enfoncant dans les profondeurs du complexe. L'autre est identique à la différence que la ligne est rouge.</t>
+  </si>
+  <si>
+    <t>Le couloir dans lequel vous entrez vous paraît tout à fait banal, à l'exception de cette large ligne verte peinte sur le mur. Le couloir à de nombreux embranchements mais leur pénombre vous dissuade de les emprunter, de plus vous préférez continuer à suivre la ligne. Cependant au bout de quelques minutes celle-ci s'arrête abruptement, en fait le couloir a intégralement été repeint en noir, du sol au plafond, sans distinction pour les portes ou les néons. La pénombre est donc encore plus étouffante. Pourtant il vous faut continuer ... Vous décidez de marcher au hasard.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -691,13 +708,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -718,38 +753,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutre" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1028,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,36 +1086,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="12" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1155,7 +1193,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
@@ -1180,7 +1218,7 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>16</v>
@@ -1221,7 +1259,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
@@ -1259,19 +1297,19 @@
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>-1</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>16</v>
@@ -1289,7 +1327,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>12</v>
@@ -1298,13 +1336,13 @@
         <v>32</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -1321,7 +1359,7 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="4"/>
@@ -1337,22 +1375,22 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -1365,7 +1403,7 @@
         <v>16</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
@@ -1373,10 +1411,10 @@
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q6" s="4">
         <v>-1</v>
@@ -1385,13 +1423,13 @@
         <v>-3</v>
       </c>
       <c r="S6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="V6" s="4"/>
       <c r="W6" s="4" t="s">
@@ -1401,22 +1439,22 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -1437,10 +1475,10 @@
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="4">
         <v>0</v>
@@ -1463,22 +1501,22 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -1491,7 +1529,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
@@ -1499,10 +1537,10 @@
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="Q8" s="4">
         <v>0</v>
@@ -1515,10 +1553,10 @@
         <v>16</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W8" s="4" t="s">
         <v>17</v>
@@ -1527,22 +1565,22 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -1552,10 +1590,10 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
@@ -1563,10 +1601,10 @@
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="Q9" s="4">
         <v>-2</v>
@@ -1576,10 +1614,10 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="U9" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4" t="s">
@@ -1589,22 +1627,22 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G10" s="4">
         <v>-2</v>
@@ -1613,13 +1651,13 @@
         <v>-1</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
@@ -1627,10 +1665,10 @@
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q10" s="4">
         <v>0</v>
@@ -1643,7 +1681,7 @@
         <v>16</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4" t="s">
@@ -1653,22 +1691,22 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="G11" s="4">
         <v>2</v>
@@ -1681,7 +1719,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
@@ -1689,10 +1727,10 @@
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="Q11" s="4">
         <v>0</v>
@@ -1705,7 +1743,7 @@
         <v>16</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4" t="s">
@@ -1715,22 +1753,22 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -1743,7 +1781,7 @@
         <v>16</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4" t="s">
@@ -1751,10 +1789,10 @@
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P12" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="Q12" s="4">
         <v>-1</v>
@@ -1767,10 +1805,10 @@
         <v>16</v>
       </c>
       <c r="U12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="V12" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="W12" s="4" t="s">
         <v>17</v>
@@ -1779,22 +1817,22 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="G13" s="4">
         <v>-1</v>
@@ -1807,7 +1845,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
@@ -1827,22 +1865,22 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -1852,10 +1890,10 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4" t="s">
@@ -1875,22 +1913,22 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -1900,10 +1938,10 @@
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
@@ -1911,10 +1949,10 @@
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q15" s="4">
         <v>0</v>
@@ -1927,7 +1965,7 @@
         <v>16</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V15" s="4"/>
       <c r="W15" s="4" t="s">
@@ -1937,22 +1975,22 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -1968,17 +2006,17 @@
         <v>16</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="Q16" s="4">
         <v>0</v>
@@ -2000,22 +2038,22 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G17" s="4">
         <v>-1</v>
@@ -2036,10 +2074,10 @@
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="P17" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="Q17" s="4">
         <v>0</v>
@@ -2055,7 +2093,7 @@
         <v>16</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W17" s="4" t="s">
         <v>17</v>
@@ -2064,22 +2102,22 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="G18" s="4">
         <v>-1</v>
@@ -2088,7 +2126,7 @@
         <v>-3</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>16</v>
@@ -2102,10 +2140,10 @@
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q18" s="4">
         <v>-2</v>
@@ -2114,7 +2152,7 @@
         <v>-1</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>16</v>
@@ -2130,22 +2168,22 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
@@ -2166,10 +2204,10 @@
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="4">
         <v>0</v>
@@ -2192,22 +2230,22 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
@@ -2228,10 +2266,10 @@
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="4">
         <v>0</v>
@@ -2254,31 +2292,31 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>16</v>
@@ -2292,10 +2330,10 @@
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="4">
         <v>0</v>
@@ -2318,22 +2356,22 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>150</v>
+        <v>196</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
@@ -2353,11 +2391,11 @@
         <v>17</v>
       </c>
       <c r="N22" s="5"/>
-      <c r="O22" s="11" t="s">
-        <v>149</v>
+      <c r="O22" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q22" s="4">
         <v>0</v>
@@ -2380,37 +2418,52 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="G23" s="4">
         <v>0</v>
       </c>
       <c r="H23" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="Q23" s="4">
         <v>0</v>
       </c>
       <c r="R23" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="U23" s="4" t="s">
         <v>16</v>
@@ -2422,45 +2475,333 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X24" s="4"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
-        <v>-1</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>0</v>
-      </c>
-      <c r="R24" s="4">
-        <v>0</v>
-      </c>
-      <c r="T24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="X24" s="4"/>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X25" s="4"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W28" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>0</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W30" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W31" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2468,6 +2809,7 @@
     <mergeCell ref="O1:X1"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2475,32 +2817,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" style="3"/>
-    <col min="5" max="5" width="56.140625" customWidth="1"/>
-    <col min="6" max="6" width="156.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="0.5703125" customWidth="1"/>
-    <col min="10" max="10" width="1.28515625" customWidth="1"/>
-    <col min="11" max="11" width="44.42578125" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" customWidth="1"/>
+    <col min="22" max="22" width="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="13"/>
@@ -2512,817 +2870,657 @@
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4">
+        <v>-3</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>207</v>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E6" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="4" t="s">
+      <c r="F6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G6">
+        <v>99</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" t="s">
         <v>93</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P6" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="X3" s="4"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="4">
-        <v>-3</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="X4" s="4"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="X5" s="4"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G6" s="4">
-        <v>99</v>
-      </c>
-      <c r="H6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U6" s="4" t="s">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" t="s">
         <v>20</v>
       </c>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="X6" s="4"/>
+      <c r="W6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" t="s">
         <v>113</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="4" t="s">
+      <c r="P7" t="s">
         <v>114</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q7" s="4">
+      <c r="Q7">
         <v>-3</v>
       </c>
-      <c r="R7" s="4">
-        <v>-1</v>
-      </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="X7" s="4"/>
+      <c r="R7">
+        <v>-1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" t="s">
+        <v>112</v>
+      </c>
+      <c r="W7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8">
+        <v>-3</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G8" s="4">
-        <v>-3</v>
-      </c>
-      <c r="H8" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="11" t="s">
+      <c r="P8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>-1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U8" t="s">
         <v>146</v>
       </c>
-      <c r="P8" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4">
-        <v>-1</v>
-      </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="X8" s="4"/>
+      <c r="W8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="G9">
         <v>-3</v>
       </c>
-      <c r="H9" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="11" t="s">
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" t="s">
+        <v>159</v>
+      </c>
+      <c r="P9" t="s">
         <v>160</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>-1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>16</v>
+      </c>
+      <c r="U9" t="s">
         <v>161</v>
       </c>
-      <c r="Q9" s="4">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4">
-        <v>-1</v>
-      </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="X9" s="4"/>
+      <c r="W9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" t="s">
         <v>151</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" t="s">
         <v>152</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>-4</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4" t="s">
+      <c r="J10" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" t="s">
         <v>158</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
+      <c r="M10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>-2</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>99</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="P12" t="s">
         <v>167</v>
       </c>
-      <c r="G12" s="4">
-        <v>5</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="Q12">
+        <v>-3</v>
+      </c>
+      <c r="R12">
         <v>99</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>-3</v>
-      </c>
-      <c r="R12" s="4">
-        <v>99</v>
-      </c>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="X12" s="4"/>
+      <c r="T12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U12" t="s">
+        <v>16</v>
+      </c>
+      <c r="W12" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>16</v>
+      </c>
+      <c r="U13" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3340,20 +3538,21 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>7</v>
@@ -3362,18 +3561,18 @@
         <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
@@ -3389,31 +3588,31 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="A3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -3430,10 +3629,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -3450,10 +3649,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -3470,10 +3669,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
@@ -3490,10 +3689,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>

--- a/event_table.xlsx
+++ b/event_table.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
-  <workbookPr showInkAnnotation="0"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Desktop\Python\autre\alone-terminal-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19BECED-1B66-4EEA-990E-D1897F03C704}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CB4370-996B-4961-8886-75BB331ED9CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="286">
   <si>
     <t>zone</t>
   </si>
@@ -200,9 +200,6 @@
     <t>Dans cette étendue de sable bien monotone vous ne savez plus où aller.</t>
   </si>
   <si>
-    <t>Tandis que vous observez le monticule, vous entendez un curieux grincement métallique et vous avez l'impression d'apercevoir une forme miroitant au soleil au sommet de la dune. Puis, plus rien.</t>
-  </si>
-  <si>
     <t>Vous enfilez la combinaison et ouvrez la porte.</t>
   </si>
   <si>
@@ -641,9 +638,6 @@
     <t>Après de longues minutes de descente abrupte, vous arrivez dans une pièce rectangulaire faiblement éclairée par ce qui semble être des pierres luminescentes. Des tas de ferrailles métalliques jonchent le sol parfois arrivant jusqu'au plafond environ 3 mètres de hauteur. Au milieu de celle-ci trône un autel en pierre sur lequel repose une plaque luminescente métallique gravée, iridescente. Cet objet est tellement étrange et beau qu'il semblerait presque d'origine extra-terrestre.</t>
   </si>
   <si>
-    <t>La porte s'ouvre sans un seul bruit. Celle-ci protégeait en fait un bureau en acier trempé sur lequel repose un ordinateur qui sort de sa veille dès votre entrée dans la pièce. Celui-ci ne vous laisse accéder qu'à une unique note.  Rapport-XX/XX/XX\  :  Le sujet s'est échappé du secteur 4. Comment est-ce possible avec le renforcement de la sécurité ? Envoyez une équipe sur place et ordonnez au personnel sans combi d'évitez la zone de h-s (à gauche à l'entrée du centre), il faudra certainement encore drainer l'oxygène pour en venir à bout. Tandis que vous méditez cette lecture vous apercevez derriere le bureau une station de soin personnel, un matériel qui coûte une fortune, en effet dès utilisation l'effet est immédiat, vous vous sentez rajeuni de 10 ans.</t>
-  </si>
-  <si>
     <t>[["desert","random","random9"], ["desert","random","random10"]]</t>
   </si>
   <si>
@@ -671,20 +665,233 @@
     <t>random_vert_1</t>
   </si>
   <si>
-    <t>Le couloir dans lequel vous entrez vous paraît tout à fait banal, à l'exception de cette large ligne rouge peinte sur le mur. Le couloir s'enfonce tout droit dans les profondeurs du complexe et la ligne s'agrandit progressivement jusqu'à recouvrir l'intégralité du couloir d'un rouge vif. Soudain sans prévenir, la lumière s'éteint et vous entendez un chuinttement que vous reconnaissez entre mille ; de l'oxygène c'était trop beau pour durer. Déboussolé par ces événements innatendus il va pourtant falloir continuer ... Vous décidez de marcher au hasard.</t>
-  </si>
-  <si>
-    <t>Vos yeux mettent quelques secondes à s'habituer à la semi-pénombre, agréable après l'éblouissement du désert. Votre enthousiasme précédent est bien retombé, il vous faut maintenant explorer ce lieu inconnu et les dangers du désert vous bien mis en garde ; vous êtes en zone hostile. Au fond de la pièce deux portes, l'une ouvre sur une ligne verte serpentant le long du mur et s'enfoncant dans les profondeurs du complexe. L'autre est identique à la différence que la ligne est rouge.</t>
-  </si>
-  <si>
     <t>Le couloir dans lequel vous entrez vous paraît tout à fait banal, à l'exception de cette large ligne verte peinte sur le mur. Le couloir à de nombreux embranchements mais leur pénombre vous dissuade de les emprunter, de plus vous préférez continuer à suivre la ligne. Cependant au bout de quelques minutes celle-ci s'arrête abruptement, en fait le couloir a intégralement été repeint en noir, du sol au plafond, sans distinction pour les portes ou les néons. La pénombre est donc encore plus étouffante. Pourtant il vous faut continuer ... Vous décidez de marcher au hasard.</t>
+  </si>
+  <si>
+    <t>random2_ox</t>
+  </si>
+  <si>
+    <t>random3_ded</t>
+  </si>
+  <si>
+    <t>random1_gar</t>
+  </si>
+  <si>
+    <t>random4_ded+</t>
+  </si>
+  <si>
+    <t>random5_salle1</t>
+  </si>
+  <si>
+    <t>random6_salle2</t>
+  </si>
+  <si>
+    <t>random7_salle3</t>
+  </si>
+  <si>
+    <t>random8_grat</t>
+  </si>
+  <si>
+    <t>random9_gro</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>Vos yeux mettent quelques secondes à s'habituer à la semi-pénombre, agréable après l'éblouissement du désert. Votre enthousiasme précédent est bien retombé, il vous faut maintenant explorer ce lieu inconnu et les dangers du désert vous bien mis en garde ; vous êtes en zone hostile. Au fond de la pièce deux portes, l'une ouvre sur une ligne verte serpentant le long du mur et s'enfonçant dans les profondeurs du complexe. L'autre est identique à la différence que la ligne est rouge.</t>
+  </si>
+  <si>
+    <t>Le couloir dans lequel vous entrez vous paraît tout à fait banal, à l'exception de cette large ligne rouge peinte sur le mur. Le couloir s'enfonce tout droit dans les profondeurs du complexe et la ligne s'agrandit progressivement jusqu'à recouvrir l'intégralité du couloir d'un rouge vif. Soudain sans prévenir, la lumière s'éteint et vous entendez un chuintement que vous reconnaissez entre mille ; de l'oxygène c'était trop beau pour durer. Déboussolé par ces événements inattendus il va pourtant falloir continuer ... Vous décidez de marcher au hasard.</t>
+  </si>
+  <si>
+    <t>Une alarme retentit soudain et tous les néons passent au rouge. Puis, au bout de quelques secondes, l'alarme s'arrête. A part l'éclairage rien ne semble avoir changé. Vous espérez que votre intrusion n'ait aucun lien avec l'événement.</t>
+  </si>
+  <si>
+    <t>Vous retenez votre souffle.</t>
+  </si>
+  <si>
+    <t>Rien ne se passe, mais vous êtes plus que jamais sur vos gardes.</t>
+  </si>
+  <si>
+    <t>random_garde</t>
+  </si>
+  <si>
+    <t>Au grès d'un couloir, une aspérité du mur accroche votre bonbonne d'oxygène qui commence à fuir. Vous vous apercevez heureusement rapidement. De toute façon ce n'est pas l'oxygène qui manque ici.</t>
+  </si>
+  <si>
+    <t>Faire un réparage de fortune.</t>
+  </si>
+  <si>
+    <t>La laisser fuir, de toute façon vous n'en avez plus besoin.</t>
+  </si>
+  <si>
+    <t>Vous continuez le cœur léger en laissant la bouteille se vider.</t>
+  </si>
+  <si>
+    <t>La fuit est rapidement colmatée et vous vous efforcez de ne plus y penser.</t>
+  </si>
+  <si>
+    <t>Ce complexe est un véritable dédale ! Vous n'êtes pas sûr d'être dans la bonne direction. Et cette maudite ligne qui a disparue …</t>
+  </si>
+  <si>
+    <t>[["lab","random","random2_ox"]]</t>
+  </si>
+  <si>
+    <t>Vous vous dirigez à droite.</t>
+  </si>
+  <si>
+    <t>Encore un couloir identique aux autres ...</t>
+  </si>
+  <si>
+    <t>Vous vous dirigez à gauche.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un genre de grattement se fait entendre, réverbéré le long du couloir devant vous. Difficile de déterminer son origine. </t>
+  </si>
+  <si>
+    <t>Vous vous faites tout petit, et rebroussez chemin.</t>
+  </si>
+  <si>
+    <t>Plus de signe du bruit. Vous l'avez sans doute échappé belle.</t>
+  </si>
+  <si>
+    <t>[["lab","random","random8_grat"]]</t>
+  </si>
+  <si>
+    <t>[["lab","random","random1_gar"]]</t>
+  </si>
+  <si>
+    <t>Vous accélérez le pas vers ce qui est peut-être l'origine du grattement.</t>
+  </si>
+  <si>
+    <t>Un grognement fait trembler les murs. Et au bruit qu'il fait, la cause se rapproche de vous !</t>
+  </si>
+  <si>
+    <t>Vous détalez.</t>
+  </si>
+  <si>
+    <t>Après quelques minutes de course, vous n'entendez plus rien. Vous avez sans doute semé la chose responsable du grognement. Vous reprenez diffcilement haleine.</t>
+  </si>
+  <si>
+    <t>[["lab","random","random9_gro"]]</t>
+  </si>
+  <si>
+    <t>Vous foncez droit vers le bruit, déterminé à en confronter le responsable.</t>
+  </si>
+  <si>
+    <t>Il s'arrête au bout de quelques secondes, et ne reprend plus. Dépité vous poursuivez votre exploration.</t>
+  </si>
+  <si>
+    <t>plan_jardin</t>
+  </si>
+  <si>
+    <t>Plus vous avancez plus le grognement devient ronronnement. Vous arrivez dans une large salle blanche éclairée par des puissants spots. Plissants les yeux vous comprenez que le grognement n'était en fait que le ronronnement rassurant d'une photocopieuse, horriblement déformé par l'écho des longs couloirs. Au pieds de l'imprimante, une marre de feuilles, toutes semble-t-il étant des impressions du même document. Celui-ci est un plan de ce qui semble être un dédale, avec un chemin grossièrement dessiné en rouge. Celui-ci est sobrement appelé "Plan des jardins". Malheureusement cela ne vous est d'aucune aide dans l'immédiat. Il ne semble rien n'y avoir d'autre à faire dans cette salle et vous reprenez votre chemin.</t>
+  </si>
+  <si>
+    <t>plan des jardins</t>
+  </si>
+  <si>
+    <t>Soudain, vous percevez de la lumière sous une porte du couloir.</t>
+  </si>
+  <si>
+    <t>random_vert_2</t>
+  </si>
+  <si>
+    <t>random_vert_3</t>
+  </si>
+  <si>
+    <t>random_rouge_1</t>
+  </si>
+  <si>
+    <t>random_rouge_2</t>
+  </si>
+  <si>
+    <t>random_rouge_3</t>
+  </si>
+  <si>
+    <t>Rien à faire, elle est solide et verrouillée.</t>
+  </si>
+  <si>
+    <t>Vous n'y prêtez pas attention.</t>
+  </si>
+  <si>
+    <t>Qui sait ce que vous auriez pu trouver derrière ?</t>
+  </si>
+  <si>
+    <t>[["lab","random","random6_salle2"]]</t>
+  </si>
+  <si>
+    <t>[["lab","random","random7_salle3"]]</t>
+  </si>
+  <si>
+    <t>[["lab","random","random4_ded+"]]</t>
+  </si>
+  <si>
+    <t>random10_sas</t>
+  </si>
+  <si>
+    <t>A l'angle d'un couloir anodin, vous vous retrouvez face à un sas étanche. Un petit écran vert ç sa gauche ne comporte qu'un seul mot : "ouvrir ?". Allez-vous répondre à cet appel ?</t>
+  </si>
+  <si>
+    <t>Devant vous le noir total, vous êtes sans doute dans une grotte.</t>
+  </si>
+  <si>
+    <t>[["lab","random","random10_sas"]]</t>
+  </si>
+  <si>
+    <t>lab2</t>
+  </si>
+  <si>
+    <t>Vos réponses sont dans ce complexe, pas dehors !</t>
+  </si>
+  <si>
+    <t>Vous avez sans doute pris la bonne décision.</t>
+  </si>
+  <si>
+    <t>Vous vérifiez votre oxygène, mettez votre combinaison, et ouvrez le sas sans perdre de temps.</t>
+  </si>
+  <si>
+    <t>Il n'y a aucune source de lumière et aucun moyen d'en emporter une, vous commencez à douter de votre idée.</t>
+  </si>
+  <si>
+    <t>Vous vous élancez en dehors du sas, tant pis vous ferez à tâtons.</t>
+  </si>
+  <si>
+    <t>Vous jugez plus prudent d'abandonner votre idée.</t>
+  </si>
+  <si>
+    <t>Vous prenez une grande emjambée et sortez du sas .. et heurtez violemment une paroi. Sonné vous tentez de vous remettre sur vos pieds et découvrez qu'il n y a pas de sol. A l'extérieur du sas, il n'y avait en fait qu'un énorme trou. Malheureusement, vu la longueur de votre chute, vous ne saurez jamais ce qu'il y a au fond ...</t>
+  </si>
+  <si>
+    <t>La porte s'ouvre sans un seul bruit. Celle-ci protégeait en fait un bureau en acier trempé sur lequel repose un ordinateur qui sort de sa veille dès votre entrée dans la pièce. Celui-ci ne vous laisse accéder qu'à une unique note.  Rapport-XX/XX/XX\  :  Le sujet s'est échappé du secteur 4. Comment est-ce possible avec le renforcement de la sécurité ? Envoyez une équipe sur place et ordonnez au personnel sans combi d'évitez la zone de h-s (rouge), il faudra certainement encore drainer l'oxygène pour en venir à bout. Tandis que vous méditez cette lecture vous apercevez derrière le bureau une station de soin personnel, un matériel qui coûte une fortune, en effet dès utilisation l'effet est immédiat, vous vous sentez rajeuni de 10 ans.</t>
+  </si>
+  <si>
+    <t>A votre grande surprise, la porte s'ouvre sans broncher. WIP</t>
+  </si>
+  <si>
+    <t>[["lab","random","random_garde"]]</t>
+  </si>
+  <si>
+    <t>[["lab","random","random_vert_2"]]</t>
+  </si>
+  <si>
+    <t>[["lab","random","random_vert_3"]]</t>
+  </si>
+  <si>
+    <t>WIP GG!!!</t>
+  </si>
+  <si>
+    <t>jardins</t>
+  </si>
+  <si>
+    <t>Tandis que votre regard divague, vous entendez un curieux grincement métallique et vous avez l'impression d'apercevoir une forme miroitant au soleil au sommet d'une dune avoisinante. Puis, plus rien.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,8 +928,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,8 +954,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -752,12 +977,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -770,6 +1016,19 @@
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -779,14 +1038,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
     <cellStyle name="Neutre" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1066,58 +1325,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z31"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="42.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" style="3"/>
     <col min="15" max="15" width="14.5703125" customWidth="1"/>
+    <col min="21" max="21" width="39" customWidth="1"/>
     <col min="23" max="23" width="13.7109375" customWidth="1"/>
     <col min="25" max="25" width="11.28515625" customWidth="1"/>
     <col min="26" max="26" width="11.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="10" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
@@ -1218,7 +1480,7 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>16</v>
@@ -1257,7 +1519,7 @@
       </c>
       <c r="X3" s="4"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -1297,10 +1559,10 @@
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="4">
         <v>-1</v>
@@ -1325,55 +1587,56 @@
       </c>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:26" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="D5" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
         <v>-1</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N5" s="16"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Z5" s="18"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -1387,10 +1650,10 @@
         <v>37</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -1403,7 +1666,7 @@
         <v>16</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
@@ -1411,10 +1674,10 @@
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="4">
         <v>-1</v>
@@ -1423,13 +1686,13 @@
         <v>-3</v>
       </c>
       <c r="S6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="V6" s="4"/>
       <c r="W6" s="4" t="s">
@@ -1437,7 +1700,7 @@
       </c>
       <c r="X6" s="4"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1451,10 +1714,10 @@
         <v>55</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -1475,10 +1738,10 @@
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q7" s="4">
         <v>0</v>
@@ -1499,7 +1762,7 @@
       </c>
       <c r="X7" s="4"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
@@ -1513,10 +1776,10 @@
         <v>56</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -1529,7 +1792,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
@@ -1537,10 +1800,10 @@
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="Q8" s="4">
         <v>0</v>
@@ -1553,7 +1816,7 @@
         <v>16</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V8" s="4" t="s">
         <v>48</v>
@@ -1563,7 +1826,7 @@
       </c>
       <c r="X8" s="4"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -1574,13 +1837,13 @@
         <v>41</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -1590,10 +1853,10 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
@@ -1601,10 +1864,10 @@
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="Q9" s="4">
         <v>-2</v>
@@ -1614,10 +1877,10 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="U9" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4" t="s">
@@ -1625,7 +1888,7 @@
       </c>
       <c r="X9" s="4"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
@@ -1636,13 +1899,13 @@
         <v>42</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G10" s="4">
         <v>-2</v>
@@ -1651,13 +1914,13 @@
         <v>-1</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
@@ -1665,10 +1928,10 @@
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="4">
         <v>0</v>
@@ -1681,7 +1944,7 @@
         <v>16</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4" t="s">
@@ -1689,7 +1952,7 @@
       </c>
       <c r="X10" s="4"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
@@ -1700,13 +1963,13 @@
         <v>43</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="G11" s="4">
         <v>2</v>
@@ -1719,7 +1982,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
@@ -1727,10 +1990,10 @@
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="Q11" s="4">
         <v>0</v>
@@ -1743,7 +2006,7 @@
         <v>16</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4" t="s">
@@ -1751,7 +2014,7 @@
       </c>
       <c r="X11" s="4"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
@@ -1762,13 +2025,13 @@
         <v>44</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -1781,7 +2044,7 @@
         <v>16</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4" t="s">
@@ -1789,10 +2052,10 @@
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="P12" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="Q12" s="4">
         <v>-1</v>
@@ -1805,17 +2068,17 @@
         <v>16</v>
       </c>
       <c r="U12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="V12" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="V12" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="W12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="X12" s="4"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
@@ -1826,13 +2089,13 @@
         <v>45</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="G13" s="4">
         <v>-1</v>
@@ -1845,7 +2108,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
@@ -1863,7 +2126,7 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
@@ -1874,13 +2137,13 @@
         <v>46</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -1890,10 +2153,10 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4" t="s">
@@ -1911,7 +2174,7 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1922,13 +2185,13 @@
         <v>47</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -1938,10 +2201,10 @@
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
@@ -1949,10 +2212,10 @@
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q15" s="4">
         <v>0</v>
@@ -1965,7 +2228,7 @@
         <v>16</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V15" s="4"/>
       <c r="W15" s="4" t="s">
@@ -1973,7 +2236,7 @@
       </c>
       <c r="X15" s="4"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1984,13 +2247,13 @@
         <v>48</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>57</v>
+        <v>285</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -2013,10 +2276,10 @@
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="Q16" s="4">
         <v>0</v>
@@ -2036,7 +2299,7 @@
       </c>
       <c r="X16" s="4"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -2047,13 +2310,13 @@
         <v>49</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G17" s="4">
         <v>-1</v>
@@ -2074,10 +2337,10 @@
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="Q17" s="4">
         <v>0</v>
@@ -2100,7 +2363,7 @@
       </c>
       <c r="X17" s="4"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
@@ -2111,13 +2374,13 @@
         <v>50</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="G18" s="4">
         <v>-1</v>
@@ -2126,7 +2389,7 @@
         <v>-3</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>16</v>
@@ -2140,10 +2403,10 @@
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q18" s="4">
         <v>-2</v>
@@ -2152,7 +2415,7 @@
         <v>-1</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>16</v>
@@ -2166,7 +2429,7 @@
       </c>
       <c r="X18" s="4"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
@@ -2177,13 +2440,13 @@
         <v>51</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
@@ -2204,10 +2467,10 @@
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="4">
         <v>0</v>
@@ -2228,7 +2491,7 @@
       </c>
       <c r="X19" s="4"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>35</v>
       </c>
@@ -2239,13 +2502,13 @@
         <v>52</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
@@ -2266,10 +2529,10 @@
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="4">
         <v>0</v>
@@ -2290,7 +2553,7 @@
       </c>
       <c r="X20" s="4"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>35</v>
       </c>
@@ -2301,13 +2564,13 @@
         <v>53</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
@@ -2316,7 +2579,7 @@
         <v>-1</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>16</v>
@@ -2330,10 +2593,10 @@
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="4">
         <v>0</v>
@@ -2354,107 +2617,108 @@
       </c>
       <c r="X21" s="4"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:26" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
+        <v>99</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="16"/>
+      <c r="O22" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
-        <v>99</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" s="5"/>
-      <c r="O22" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>0</v>
-      </c>
-      <c r="R22" s="4">
+      <c r="Q22" s="15">
+        <v>0</v>
+      </c>
+      <c r="R22" s="15">
         <v>-2</v>
       </c>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="X22" s="4"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S22" s="15"/>
+      <c r="T22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="U22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="X22" s="15"/>
+      <c r="Z22" s="18"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="K23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="Q23" s="4">
         <v>0</v>
@@ -2463,7 +2727,7 @@
         <v>-1</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="U23" s="4" t="s">
         <v>16</v>
@@ -2473,15 +2737,24 @@
       </c>
       <c r="X23" s="4"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>38</v>
+      <c r="C24" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
@@ -2490,316 +2763,618 @@
         <v>0</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q24" s="4">
-        <v>0</v>
-      </c>
-      <c r="R24" s="4">
-        <v>0</v>
-      </c>
-      <c r="T24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W24" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="W24" s="4"/>
       <c r="X24" s="4"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>0</v>
-      </c>
-      <c r="R25" s="4">
-        <v>0</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W25" s="4" t="s">
+      <c r="C25" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <v>-3</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>0</v>
+      </c>
+      <c r="R25" s="10">
+        <v>-99</v>
+      </c>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U25" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10" t="s">
         <v>17</v>
       </c>
       <c r="X25" s="4"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>0</v>
-      </c>
-      <c r="R26" s="4">
-        <v>0</v>
-      </c>
-      <c r="T26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W26" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="C26" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>0</v>
+      </c>
+      <c r="R26" s="10">
+        <v>0</v>
+      </c>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>0</v>
-      </c>
-      <c r="R27" s="4">
-        <v>0</v>
-      </c>
-      <c r="T27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W27" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="C27" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="12"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11">
+        <v>0</v>
+      </c>
+      <c r="R27" s="11">
+        <v>0</v>
+      </c>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="U27" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>0</v>
-      </c>
-      <c r="R28" s="4">
-        <v>0</v>
-      </c>
-      <c r="T28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W28" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="C28" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>0</v>
+      </c>
+      <c r="R28" s="10">
+        <v>0</v>
+      </c>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>0</v>
-      </c>
-      <c r="R29" s="4">
-        <v>0</v>
-      </c>
-      <c r="T29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W29" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="C29" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="14"/>
+      <c r="O29" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>0</v>
+      </c>
+      <c r="R29" s="13">
+        <v>0</v>
+      </c>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="U29" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>0</v>
-      </c>
-      <c r="R30" s="4">
-        <v>0</v>
-      </c>
-      <c r="T30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W30" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="C30" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="14"/>
+      <c r="O30" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>0</v>
+      </c>
+      <c r="R30" s="13">
+        <v>0</v>
+      </c>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="U30" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q31" s="4">
-        <v>0</v>
-      </c>
-      <c r="R31" s="4">
-        <v>0</v>
-      </c>
-      <c r="T31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W31" s="4" t="s">
+      <c r="C31" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="P31" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>0</v>
+      </c>
+      <c r="R31" s="10">
+        <v>0</v>
+      </c>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U31" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="P32" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>0</v>
+      </c>
+      <c r="R32" s="10">
+        <v>0</v>
+      </c>
+      <c r="S32" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="T32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U32" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>-2</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="L33" t="s">
+        <v>270</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>0</v>
+      </c>
+      <c r="R33" s="10">
+        <v>0</v>
+      </c>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U33" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="G34" s="10">
+        <v>-99</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>0</v>
+      </c>
+      <c r="R34" s="10">
+        <v>0</v>
+      </c>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U34" t="s">
+        <v>16</v>
+      </c>
+      <c r="W34" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2817,25 +3392,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" customWidth="1"/>
     <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" style="3" customWidth="1"/>
@@ -2845,43 +3420,43 @@
     <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" customWidth="1"/>
+    <col min="21" max="21" width="34.42578125" customWidth="1"/>
     <col min="22" max="22" width="6" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="16" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2959,22 +3534,22 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2992,7 +3567,7 @@
         <v>17</v>
       </c>
       <c r="O3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P3" t="s">
         <v>27</v>
@@ -3015,22 +3590,22 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G4">
         <v>-3</v>
@@ -3042,13 +3617,13 @@
         <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M4" t="s">
         <v>17</v>
       </c>
       <c r="O4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P4" t="s">
         <v>27</v>
@@ -3071,43 +3646,43 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>205</v>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" t="s">
         <v>91</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>207</v>
-      </c>
-      <c r="M5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" t="s">
-        <v>92</v>
       </c>
       <c r="P5" t="s">
         <v>27</v>
@@ -3130,22 +3705,22 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c r="G6">
         <v>99</v>
@@ -3163,10 +3738,10 @@
         <v>17</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P6" t="s">
         <v>27</v>
@@ -3195,13 +3770,13 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" t="s">
         <v>110</v>
-      </c>
-      <c r="E7" t="s">
-        <v>111</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -3216,16 +3791,16 @@
         <v>16</v>
       </c>
       <c r="K7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" t="s">
         <v>112</v>
       </c>
-      <c r="M7" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" t="s">
-        <v>114</v>
       </c>
       <c r="Q7">
         <v>-3</v>
@@ -3237,7 +3812,7 @@
         <v>16</v>
       </c>
       <c r="U7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W7" t="s">
         <v>17</v>
@@ -3251,16 +3826,16 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" t="s">
         <v>143</v>
       </c>
-      <c r="E8" t="s">
-        <v>144</v>
-      </c>
       <c r="F8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G8">
         <v>-3</v>
@@ -3272,7 +3847,7 @@
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L8" t="s">
         <v>54</v>
@@ -3281,10 +3856,10 @@
         <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3296,7 +3871,7 @@
         <v>16</v>
       </c>
       <c r="U8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W8" t="s">
         <v>17</v>
@@ -3310,16 +3885,16 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" t="s">
         <v>169</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>170</v>
-      </c>
-      <c r="F9" t="s">
-        <v>171</v>
       </c>
       <c r="G9">
         <v>-3</v>
@@ -3331,16 +3906,16 @@
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M9" t="s">
         <v>17</v>
       </c>
       <c r="O9" t="s">
+        <v>158</v>
+      </c>
+      <c r="P9" t="s">
         <v>159</v>
-      </c>
-      <c r="P9" t="s">
-        <v>160</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3352,7 +3927,7 @@
         <v>16</v>
       </c>
       <c r="U9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W9" t="s">
         <v>17</v>
@@ -3366,16 +3941,16 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" t="s">
         <v>150</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>151</v>
-      </c>
-      <c r="F10" t="s">
-        <v>152</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -3384,10 +3959,10 @@
         <v>-4</v>
       </c>
       <c r="J10" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" t="s">
         <v>157</v>
-      </c>
-      <c r="K10" t="s">
-        <v>158</v>
       </c>
       <c r="M10" t="s">
         <v>17</v>
@@ -3401,16 +3976,16 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" t="s">
         <v>153</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>154</v>
-      </c>
-      <c r="F11" t="s">
-        <v>155</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3436,16 +4011,16 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" t="s">
         <v>172</v>
       </c>
-      <c r="E12" t="s">
-        <v>173</v>
-      </c>
       <c r="F12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -3459,17 +4034,20 @@
       <c r="K12" t="s">
         <v>16</v>
       </c>
+      <c r="L12" t="s">
+        <v>93</v>
+      </c>
       <c r="M12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>-3</v>
@@ -3484,42 +4062,318 @@
         <v>16</v>
       </c>
       <c r="W12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
-        <v>213</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="T13" t="s">
-        <v>16</v>
-      </c>
-      <c r="U13" t="s">
-        <v>16</v>
+      <c r="C13" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="14"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="10"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="14"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="10"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="N15" s="14"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="10"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="14"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="10"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="14"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="10"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="14"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="10"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="14"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13">
+        <v>0</v>
+      </c>
+      <c r="R19" s="13">
+        <v>0</v>
+      </c>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="U19" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="V19" s="13"/>
+      <c r="W19" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3528,6 +4382,7 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:X1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3538,7 +4393,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3549,10 +4404,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>7</v>
@@ -3561,58 +4416,58 @@
         <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0</v>
-      </c>
-      <c r="D3" s="14">
-        <v>0</v>
-      </c>
-      <c r="E3" s="14">
-        <v>0</v>
-      </c>
-      <c r="F3" s="14">
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -3629,10 +4484,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -3649,10 +4504,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -3668,31 +4523,31 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
@@ -3708,12 +4563,24 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>

--- a/event_table.xlsx
+++ b/event_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Desktop\Python\autre\alone-terminal-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CB4370-996B-4961-8886-75BB331ED9CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAD3754-0FB1-4650-8F1B-C2075F4DB964}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="306" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="343">
   <si>
     <t>zone</t>
   </si>
@@ -86,15 +86,6 @@
     <t>event</t>
   </si>
   <si>
-    <t>["porte_rouge3"]</t>
-  </si>
-  <si>
-    <t>["porte_mystérieuse"]</t>
-  </si>
-  <si>
-    <t>["lab", "script", "porte_mystérieuse"]</t>
-  </si>
-  <si>
     <t>intro1</t>
   </si>
   <si>
@@ -341,9 +332,6 @@
     <t>kit_soin1</t>
   </si>
   <si>
-    <t>kit de soin mineur</t>
-  </si>
-  <si>
     <t>Vous vous mettez à couvert.</t>
   </si>
   <si>
@@ -476,24 +464,12 @@
     <t>Bon choix, vos réserves d'oxygène sont maintenant au maximum.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alors que vous marchez seul avec vos pensées, votre réservoir semble dysfonctionner. </t>
-  </si>
-  <si>
     <t>Vous utilisez un des kits de réparation fourni avec la combinaison.</t>
   </si>
   <si>
-    <t>La réparation fonctionne mais vous avez perdu un peu d'oxygène. Très étrange incident…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauvaise nouvelle, votre réservoir semble à nouveau dysfonctionner. </t>
-  </si>
-  <si>
     <t>Vous utilisez un autre des kits de réparation fourni avec la combinaison.</t>
   </si>
   <si>
-    <t>La réparation fonctionne mais vous avez perdu un peu d'oxygène. Comment ce fait-il que pareil incident se reproduise ?!</t>
-  </si>
-  <si>
     <t>random14</t>
   </si>
   <si>
@@ -644,15 +620,9 @@
     <t>Alors que vous marchez dans ce désert infini. Un événement vient troubler vos divagations. Une petite météorite vient de s'écraser non loin, événement que vous savez pas si rare sur Mars. Vous vous approchez du lieu de l'impact. Vous sentez des vagues d'air brûlant de plus en plus intense quand vous vous approchez du cratère.</t>
   </si>
   <si>
-    <t>["porte_rouge1", "porte_rouge2","porte_rouge3"]</t>
-  </si>
-  <si>
     <t>Vous décidez de suivre la ligne verte.</t>
   </si>
   <si>
-    <t>Vous décidez de suivre la ligne rouge.</t>
-  </si>
-  <si>
     <t>[["lab","random","random_vert_1"]]</t>
   </si>
   <si>
@@ -689,12 +659,6 @@
     <t>random7_salle3</t>
   </si>
   <si>
-    <t>random8_grat</t>
-  </si>
-  <si>
-    <t>random9_gro</t>
-  </si>
-  <si>
     <t>WIP</t>
   </si>
   <si>
@@ -755,9 +719,6 @@
     <t>Plus de signe du bruit. Vous l'avez sans doute échappé belle.</t>
   </si>
   <si>
-    <t>[["lab","random","random8_grat"]]</t>
-  </si>
-  <si>
     <t>[["lab","random","random1_gar"]]</t>
   </si>
   <si>
@@ -773,9 +734,6 @@
     <t>Après quelques minutes de course, vous n'entendez plus rien. Vous avez sans doute semé la chose responsable du grognement. Vous reprenez diffcilement haleine.</t>
   </si>
   <si>
-    <t>[["lab","random","random9_gro"]]</t>
-  </si>
-  <si>
     <t>Vous foncez droit vers le bruit, déterminé à en confronter le responsable.</t>
   </si>
   <si>
@@ -827,18 +785,9 @@
     <t>[["lab","random","random4_ded+"]]</t>
   </si>
   <si>
-    <t>random10_sas</t>
-  </si>
-  <si>
-    <t>A l'angle d'un couloir anodin, vous vous retrouvez face à un sas étanche. Un petit écran vert ç sa gauche ne comporte qu'un seul mot : "ouvrir ?". Allez-vous répondre à cet appel ?</t>
-  </si>
-  <si>
     <t>Devant vous le noir total, vous êtes sans doute dans une grotte.</t>
   </si>
   <si>
-    <t>[["lab","random","random10_sas"]]</t>
-  </si>
-  <si>
     <t>lab2</t>
   </si>
   <si>
@@ -863,12 +812,6 @@
     <t>Vous prenez une grande emjambée et sortez du sas .. et heurtez violemment une paroi. Sonné vous tentez de vous remettre sur vos pieds et découvrez qu'il n y a pas de sol. A l'extérieur du sas, il n'y avait en fait qu'un énorme trou. Malheureusement, vu la longueur de votre chute, vous ne saurez jamais ce qu'il y a au fond ...</t>
   </si>
   <si>
-    <t>La porte s'ouvre sans un seul bruit. Celle-ci protégeait en fait un bureau en acier trempé sur lequel repose un ordinateur qui sort de sa veille dès votre entrée dans la pièce. Celui-ci ne vous laisse accéder qu'à une unique note.  Rapport-XX/XX/XX\  :  Le sujet s'est échappé du secteur 4. Comment est-ce possible avec le renforcement de la sécurité ? Envoyez une équipe sur place et ordonnez au personnel sans combi d'évitez la zone de h-s (rouge), il faudra certainement encore drainer l'oxygène pour en venir à bout. Tandis que vous méditez cette lecture vous apercevez derrière le bureau une station de soin personnel, un matériel qui coûte une fortune, en effet dès utilisation l'effet est immédiat, vous vous sentez rajeuni de 10 ans.</t>
-  </si>
-  <si>
-    <t>A votre grande surprise, la porte s'ouvre sans broncher. WIP</t>
-  </si>
-  <si>
     <t>[["lab","random","random_garde"]]</t>
   </si>
   <si>
@@ -878,20 +821,248 @@
     <t>[["lab","random","random_vert_3"]]</t>
   </si>
   <si>
-    <t>WIP GG!!!</t>
-  </si>
-  <si>
     <t>jardins</t>
   </si>
   <si>
     <t>Tandis que votre regard divague, vous entendez un curieux grincement métallique et vous avez l'impression d'apercevoir une forme miroitant au soleil au sommet d'une dune avoisinante. Puis, plus rien.</t>
+  </si>
+  <si>
+    <t>bombonne_end</t>
+  </si>
+  <si>
+    <t>bombonne endommagée</t>
+  </si>
+  <si>
+    <t>A l'angle d'un couloir anodin, vous vous retrouvez face à un sas étanche. Un petit écran vert à sa gauche ne comporte qu'un seul mot : "ouvrir ?". Allez-vous répondre à cet appel ?</t>
+  </si>
+  <si>
+    <t>Vous décidez de suivre la ligne rouge. [WIP]</t>
+  </si>
+  <si>
+    <t>A votre grande surprise, la porte s'ouvre sans broncher. L'intérieur révèle une salle poussiéreuse, au carrelage seulement partièlement posé et aux murs encore nus. Ceci explique pourquoi elle était ouverte sa construction n'est pas terminé. Pourtant on dirait que cela fait longtemps que le chantier a été abandonné. Pas grand chose d'intéressant à trouver à part des rations de protéines, sans doute destinées aux ouvrier. Ou aux gardes ...</t>
+  </si>
+  <si>
+    <t>[WIP]</t>
+  </si>
+  <si>
+    <t>lab3</t>
+  </si>
+  <si>
+    <t>random8_salle4</t>
+  </si>
+  <si>
+    <t>random9_grat</t>
+  </si>
+  <si>
+    <t>[["lab","random","random8_salle4"]]</t>
+  </si>
+  <si>
+    <t>[["lab","random","random9_grat"]]</t>
+  </si>
+  <si>
+    <t>random10_gro</t>
+  </si>
+  <si>
+    <t>[["lab","random","random10_gro"]]</t>
+  </si>
+  <si>
+    <t>random11_sas</t>
+  </si>
+  <si>
+    <t>[["lab","random","random11_sas"]]</t>
+  </si>
+  <si>
+    <t>Vous insérez les pierres blanches trouvées dans le desert dans le module principal.</t>
+  </si>
+  <si>
+    <t>Vous ne voyez pas en quoi de telles machines pourraient vous être utiles.</t>
+  </si>
+  <si>
+    <t>Vous auriez espéré qu'une telle salle vous viendrait en aide, quelle déception. Cependant avant de quitter la salle vous trouvez un petit morceau de métal en forme de roue crantée derrière un amas de câble. Sait-on jamais, vous le fourrez dans votre poche.</t>
+  </si>
+  <si>
+    <t>roue_crantee</t>
+  </si>
+  <si>
+    <t>roue crantée</t>
+  </si>
+  <si>
+    <t>kit de soin</t>
+  </si>
+  <si>
+    <t>Celui-ci commence à tournoyer et à produire un sifflement intense. Après quelques secondes tous les voyants passent au rouge et le sol commence à trembler. Vous commencez à paniquer quand soudain tout s'arrête, le module se calme et le sas s'ouvre libérant vos pierres. Celles-ci sont maintenant parfaitement taillés en forme de gemmes hexagonales. Vous comprenez maintenant le rôle des fentes de la même forme dans le pupitre de commande non-loin de là. Vous vous dépêchez de récupérer les gemmes et de les insérer. Aussitôt un écran  apparait sur le mur opposé, affichant un message énigmatique : " Bienvenue U4563-P345. Niveaux d'oxygénation et de fertilisant des jardins restaurés.". Vous avez beau vous creuser la tête vous ne savez pas si ce qui viens de se passer est vraiment une bonne chose. Secoué par tous ces événements vous finissez par quitter la pièce plongé dans vos pensées.</t>
+  </si>
+  <si>
+    <t>Vous détalez sans tarder.</t>
+  </si>
+  <si>
+    <t>Vous parvenez à le semer sans difficulté et sa petite voix-stridente disparait rapidement.</t>
+  </si>
+  <si>
+    <t>Vous vous jetez sur le petit robot, histoire de le faire taire une bonne fois pour toutes.</t>
+  </si>
+  <si>
+    <t>Bien mal vous en a pris, vous commencez à réaliser votre erreur au premier choc électrique, bientôt suivi de nombreux autres. Vous êtes bientôt incapable de bouger. Soudain le robot s'arrête et s'exclame fièrement "INTRUS NEUTRALISE", il s'éloigne alors avec le même bruit de chenille qu'il est venu. Au bout de longues minutes vous parvenez à vous lever, ou plutôt à vous trainez et vous reprenez votre route en espérant ne jamais recroiser ce robot.</t>
+  </si>
+  <si>
+    <t>random_garde_2</t>
+  </si>
+  <si>
+    <t>Vous détalez sans tarder, vous rappellant de votre dernière confrontation.</t>
+  </si>
+  <si>
+    <t>Vous tentez de les raisonner (ou d'implorer leur pitié).</t>
+  </si>
+  <si>
+    <t>Au moment où vous pensiez les avoir semé un autre vous prend à revers. Le retour des chocs électriques ne vous ravit pas… A nouveau alors que vous êtes au bord de l'inconscience les robots partent en vous laissant pour mort et il ne sont pas loin de la vérité.</t>
+  </si>
+  <si>
+    <t>Les robots restent insensibles à vos prières et vous prenez votre dose de chocs électriques. A nouveau alors que vous êtes au bord de l'inconscience les robots partent en vous laissant pour mort et il ne sont pas loin de la vérité.</t>
+  </si>
+  <si>
+    <t>[["lab","random","random_garde_2"],["lab","random","random_garde_3"]]</t>
+  </si>
+  <si>
+    <t>random_garde_3</t>
+  </si>
+  <si>
+    <t>Vous parvenez à les semer, vous vivez un autre jour !</t>
+  </si>
+  <si>
+    <t>Les robots restent insensibles à vos prières et tentent de vous électrocuter. Seulement leur taser n'a pas l'air de fonctionner et il ne parviennent qu'à vous piquer au sang en couinant. Vous les enjambez et en de longues foulées parvenez rapidement à les distancer, vous aurez au moins appris une information importante, tous les robots ne sont pas aussi bien équipés.</t>
+  </si>
+  <si>
+    <t>Mais elle disparait peut de temps après dans un autre couloir peint en noir. Qu'à cela ne tienne vous avez retrouvé espoir !</t>
+  </si>
+  <si>
+    <t>A nouveau la ligne verte réapparait, dans un couloir où des dizaines de petits robots d'un blanc immaculé reposent, semblent-il inactivés.</t>
+  </si>
+  <si>
+    <t>Vous tentez d'attirer l'attention des robots, peut-être pourront-ils vous aider.</t>
+  </si>
+  <si>
+    <t>La ligne verte disparait à nouveau au bout d'un corridor.</t>
+  </si>
+  <si>
+    <t>Alors que vous tapotez la tête d'un robot, vous ressentez une décharge éléectrique qui vous laisse dans l'inconscience. A votre réveil nulle trace des robots. De plus, La ligne verte disparait à nouveau au bout d'un corridor. Les mauvaises nouvelles s'enchaînent ...</t>
+  </si>
+  <si>
+    <t>GG tu passe aux jardins [WIP]</t>
+  </si>
+  <si>
+    <t>Après plus ample investigation, cela semble être une plateforme d'analyse d'objets minéraux aux vu des différents pictogrammes. Il est cependant difficile d'en savoir plus.</t>
+  </si>
+  <si>
+    <t>Vous passez sur la pointe des pieds.</t>
+  </si>
+  <si>
+    <t>Vous la suivez en espérant qu'elle vous guidera quelque part.</t>
+  </si>
+  <si>
+    <t>La ligne verte réapparait brièvement au détour d'un couloir.</t>
+  </si>
+  <si>
+    <t>Une porte entrebaillée attire votre attention à l'autre bout d'un couloir.</t>
+  </si>
+  <si>
+    <t>[["lab","random","random_garde_bis"]]</t>
+  </si>
+  <si>
+    <t>[["lab","random","random5_salle1"]]</t>
+  </si>
+  <si>
+    <t>lab4</t>
+  </si>
+  <si>
+    <t>lab5</t>
+  </si>
+  <si>
+    <t>Vous arrivez à un cul de sac.</t>
+  </si>
+  <si>
+    <t>Encore du temps perdu …</t>
+  </si>
+  <si>
+    <t>Vous rebroussez chemin.</t>
+  </si>
+  <si>
+    <t>lab4, lab5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alors que vous marchez seul avec vos pensées, votre réservoir d'oxygène semble dysfonctionner. </t>
+  </si>
+  <si>
+    <t>La réparation fonctionne mais vous avez perdu de l'oxygène. Très étrange incident…</t>
+  </si>
+  <si>
+    <t>Mauvaise nouvelle, vous avez un nouveau problème d'oxygène.</t>
+  </si>
+  <si>
+    <t>La réparation fonctionne mais vous avez perdu un peu d'oxygène. Comment se fait-il que pareil incident se reproduise ?!</t>
+  </si>
+  <si>
+    <t>["lab", "random", "porte_mystérieuse"]</t>
+  </si>
+  <si>
+    <t>A votre grande surprise, la porte s'ouvre sans broncher. L'intérieur révèle ce qui semble être une station d'analyse, dont la machinerie avancée et les diodes électroniques clignotantes ne vous évoquent rien de particulier, ce ne semble pas être lié à votre domaine d'expertise.</t>
+  </si>
+  <si>
+    <t>[["lab", "random","porte_rouge1"],["lab", "random","porte_rouge2"],["lab", "random","porte_rouge3"]]</t>
+  </si>
+  <si>
+    <t>[["lab", "random","porte_rouge3"]]</t>
+  </si>
+  <si>
+    <t>Un morceau de mur coulisse devant-vous dévoilant un bâton d'un blanc éclatant, d'environ un mètre, à hauteur des hanches.</t>
+  </si>
+  <si>
+    <t>Vous posez votre main sur le bâton.</t>
+  </si>
+  <si>
+    <t>Vous recevez une intense décharge électrique, qui vous laisse groggy. Vous entendez une voix robotique dire des mots que vous n'arrivez pas à saisir tant vous êtes sonné. Puis le bras se replie, vous laissant continuer.</t>
+  </si>
+  <si>
+    <t>Vous esquivez précautionneusement le bras.</t>
+  </si>
+  <si>
+    <t>Rien ne se passe et vous continuez votre chemin.</t>
+  </si>
+  <si>
+    <t>random_garde_bis</t>
+  </si>
+  <si>
+    <t>Vous foncez sur le robot, cherchant à l'endommager avant qu'il ne fasse de même avec vous.</t>
+  </si>
+  <si>
+    <t>Vous entendez le bruit d'un imposant moteur. Un énorme robot humanoïde d'environ 2m se dirige vers vous. Vous vous retournez pour chercher une échappatoire et vous vous apercevez que des portes sont sorties des murs et se ferment dans un claquement sec vous laissant sans possibilité de retraite.</t>
+  </si>
+  <si>
+    <t>Soudain, vous entendez les crissements d'une chenille, immédiatement un petit robot d'un blanc immaculé apparaît à l'angle d'un couloir. "ALERTE INTRUS DETECTE". Crie-t'il d'une voix stridente.</t>
+  </si>
+  <si>
+    <t>Soudain, vous entendez les crissements d'une chenille, immédiatement trois petits robots blancs  apparaîssent à l'angle d'un couloir. "ALERTE INTRUS DETECTE". Crient-t'il à l'unisson d'une voix stridente.</t>
+  </si>
+  <si>
+    <t>Soudain, vous entendez les crissements d'une chenille, immédiatement trois petits robots blancs en piteux état, apparaîssent à l'angle d'un couloir. "ALLER.. INTRUS..". Crient-t'il d'une voix discordante.</t>
+  </si>
+  <si>
+    <t>Vous vous applatissez conttre le mur en espérant que vous ne soyez pas sa cible.</t>
+  </si>
+  <si>
+    <t>Vous ne réussissez qu'à vous érafler le poing. Le robot vous soulève sans difficulté et prononce "GAZ NON-AUTORISE", tout en dévissant votre bombonne d'oxygène. AU bout de quelques secondes les portes s'ouvrent et il reprend sa route en vous laissant retomber à terre visiblement satisfait.</t>
+  </si>
+  <si>
+    <t>A votre abord, le robot vous soulève sans difficulté et prononce "GAZ NON-AUTORISE", tout en dévissant votre bombonne d'oxygène. AU bout de quelques secondes les portes s'ouvrent et il reprend sa route en vous laissant retomber à terre visiblement satisfait.</t>
+  </si>
+  <si>
+    <t>La porte s'ouvre sans un seul bruit. Celle-ci protégeait en fait un bureau en acier trempé sur lequel repose un ordinateur qui sort de sa veille dès votre entrée dans la pièce. Celui-ci ne vous laisse accéder qu'à une unique note.  Rapport-XX/XX/XX\  :  Le sujet s'est échappé du secteur 4. Comment est-ce possible avec le renforcement de la sécurité ? Envoyez une équipe sur place et ordonnez au personnel sans combi d'évitez la zone de h-s (violette), il faudra certainement encore drainer l'oxygène pour en venir à bout. Tandis que vous méditez cette lecture vous apercevez derrière le bureau une station de soin personnel, un matériel qui coûte une fortune, en effet dès utilisation l'effet est immédiat, vous vous sentez rajeuni de 10 ans.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -941,8 +1112,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -957,6 +1135,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -998,12 +1181,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1028,7 +1212,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1043,11 +1227,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
     <cellStyle name="Neutre" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="3" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1325,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,22 +1643,22 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
@@ -1480,23 +1668,21 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M3" s="4"/>
       <c r="N3" s="5"/>
       <c r="O3" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="4">
         <v>0</v>
@@ -1512,31 +1698,29 @@
         <v>16</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="W3" s="4"/>
       <c r="X3" s="4"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
@@ -1552,17 +1736,15 @@
         <v>16</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="M4" s="4"/>
       <c r="N4" s="5"/>
       <c r="O4" s="4" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="4">
         <v>-1</v>
@@ -1571,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>16</v>
@@ -1580,31 +1762,29 @@
         <v>16</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G5" s="15">
         <v>0</v>
@@ -1621,7 +1801,7 @@
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="15"/>
@@ -1638,22 +1818,22 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -1666,18 +1846,16 @@
         <v>16</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="M6" s="4"/>
       <c r="N6" s="5"/>
       <c r="O6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="Q6" s="4">
         <v>-1</v>
@@ -1686,38 +1864,36 @@
         <v>-3</v>
       </c>
       <c r="S6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="T6" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="U6" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="V6" s="4"/>
-      <c r="W6" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="W6" s="4"/>
       <c r="X6" s="4"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -1733,15 +1909,13 @@
         <v>16</v>
       </c>
       <c r="L7" s="4"/>
-      <c r="M7" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="M7" s="4"/>
       <c r="N7" s="5"/>
       <c r="O7" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q7" s="4">
         <v>0</v>
@@ -1757,29 +1931,27 @@
         <v>16</v>
       </c>
       <c r="V7" s="4"/>
-      <c r="W7" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="W7" s="4"/>
       <c r="X7" s="4"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -1792,18 +1964,16 @@
         <v>16</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L8" s="4"/>
-      <c r="M8" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="M8" s="4"/>
       <c r="N8" s="5"/>
       <c r="O8" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="4">
         <v>0</v>
@@ -1816,34 +1986,32 @@
         <v>16</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="W8" s="4"/>
       <c r="X8" s="4"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -1853,21 +2021,19 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L9" s="4"/>
-      <c r="M9" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="M9" s="4"/>
       <c r="N9" s="5"/>
       <c r="O9" s="4" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="Q9" s="4">
         <v>-2</v>
@@ -1877,35 +2043,33 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="V9" s="4"/>
-      <c r="W9" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="W9" s="4"/>
       <c r="X9" s="4"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G10" s="4">
         <v>-2</v>
@@ -1914,24 +2078,22 @@
         <v>-1</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L10" s="4"/>
-      <c r="M10" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="M10" s="4"/>
       <c r="N10" s="5"/>
       <c r="O10" s="4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q10" s="4">
         <v>0</v>
@@ -1944,32 +2106,30 @@
         <v>16</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="V10" s="4"/>
-      <c r="W10" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="W10" s="4"/>
       <c r="X10" s="4"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G11" s="4">
         <v>2</v>
@@ -1982,18 +2142,16 @@
         <v>16</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L11" s="4"/>
-      <c r="M11" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="M11" s="4"/>
       <c r="N11" s="5"/>
       <c r="O11" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="4">
         <v>0</v>
@@ -2006,32 +2164,30 @@
         <v>16</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="V11" s="4"/>
-      <c r="W11" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="W11" s="4"/>
       <c r="X11" s="4"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -2044,18 +2200,16 @@
         <v>16</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L12" s="4"/>
-      <c r="M12" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="M12" s="4"/>
       <c r="N12" s="5"/>
       <c r="O12" s="4" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="Q12" s="4">
         <v>-1</v>
@@ -2068,34 +2222,32 @@
         <v>16</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="W12" s="4"/>
       <c r="X12" s="4"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G13" s="4">
         <v>-1</v>
@@ -2108,12 +2260,10 @@
         <v>16</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L13" s="4"/>
-      <c r="M13" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="M13" s="4"/>
       <c r="N13" s="5"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -2128,22 +2278,22 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -2153,15 +2303,13 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L14" s="4"/>
-      <c r="M14" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="M14" s="4"/>
       <c r="N14" s="5"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -2176,22 +2324,22 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -2201,21 +2349,19 @@
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L15" s="4"/>
-      <c r="M15" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="M15" s="4"/>
       <c r="N15" s="5"/>
       <c r="O15" s="4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="4">
         <v>0</v>
@@ -2228,32 +2374,30 @@
         <v>16</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V15" s="4"/>
-      <c r="W15" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="W15" s="4"/>
       <c r="X15" s="4"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -2269,17 +2413,15 @@
         <v>16</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="M16" s="4"/>
       <c r="N16" s="5"/>
       <c r="O16" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="4">
         <v>0</v>
@@ -2294,29 +2436,27 @@
       <c r="U16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="W16" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="W16" s="4"/>
       <c r="X16" s="4"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17" s="4">
         <v>-1</v>
@@ -2332,15 +2472,13 @@
         <v>16</v>
       </c>
       <c r="L17" s="4"/>
-      <c r="M17" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="M17" s="4"/>
       <c r="N17" s="5"/>
       <c r="O17" s="4" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="4">
         <v>0</v>
@@ -2356,31 +2494,29 @@
         <v>16</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="W17" s="4"/>
       <c r="X17" s="4"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G18" s="4">
         <v>-1</v>
@@ -2389,7 +2525,7 @@
         <v>-3</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>16</v>
@@ -2398,15 +2534,13 @@
         <v>16</v>
       </c>
       <c r="L18" s="4"/>
-      <c r="M18" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="M18" s="4"/>
       <c r="N18" s="5"/>
       <c r="O18" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="Q18" s="4">
         <v>-2</v>
@@ -2415,7 +2549,7 @@
         <v>-1</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>16</v>
@@ -2424,29 +2558,27 @@
         <v>16</v>
       </c>
       <c r="V18" s="4"/>
-      <c r="W18" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="W18" s="4"/>
       <c r="X18" s="4"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
@@ -2462,15 +2594,13 @@
         <v>16</v>
       </c>
       <c r="L19" s="4"/>
-      <c r="M19" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="M19" s="4"/>
       <c r="N19" s="5"/>
       <c r="O19" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="4">
         <v>0</v>
@@ -2486,29 +2616,27 @@
         <v>16</v>
       </c>
       <c r="V19" s="4"/>
-      <c r="W19" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="W19" s="4"/>
       <c r="X19" s="4"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
@@ -2524,15 +2652,13 @@
         <v>16</v>
       </c>
       <c r="L20" s="4"/>
-      <c r="M20" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="M20" s="4"/>
       <c r="N20" s="5"/>
       <c r="O20" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="4">
         <v>0</v>
@@ -2548,29 +2674,27 @@
         <v>16</v>
       </c>
       <c r="V20" s="4"/>
-      <c r="W20" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="W20" s="4"/>
       <c r="X20" s="4"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
@@ -2579,7 +2703,7 @@
         <v>-1</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>16</v>
@@ -2588,15 +2712,13 @@
         <v>16</v>
       </c>
       <c r="L21" s="4"/>
-      <c r="M21" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="M21" s="4"/>
       <c r="N21" s="5"/>
       <c r="O21" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="4">
         <v>0</v>
@@ -2612,29 +2734,27 @@
         <v>16</v>
       </c>
       <c r="V21" s="4"/>
-      <c r="W21" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="W21" s="4"/>
       <c r="X21" s="4"/>
     </row>
     <row r="22" spans="1:26" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G22" s="15">
         <v>0</v>
@@ -2650,15 +2770,13 @@
         <v>16</v>
       </c>
       <c r="L22" s="15"/>
-      <c r="M22" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="M22" s="15"/>
       <c r="N22" s="16"/>
       <c r="O22" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="Q22" s="15">
         <v>0</v>
@@ -2674,88 +2792,87 @@
         <v>16</v>
       </c>
       <c r="V22" s="15"/>
-      <c r="W22" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="W22" s="15"/>
       <c r="X22" s="15"/>
       <c r="Z22" s="18"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="F23" s="9" t="s">
+      <c r="C23" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="P23" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>0</v>
-      </c>
-      <c r="R23" s="4">
+      <c r="Q23" s="11">
+        <v>0</v>
+      </c>
+      <c r="R23" s="11">
         <v>-1</v>
       </c>
-      <c r="T23" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="U23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="X23" s="4"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C24" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>227</v>
-      </c>
       <c r="G24" s="4">
         <v>0</v>
       </c>
@@ -2763,14 +2880,12 @@
         <v>0</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="T24" s="4"/>
@@ -2779,84 +2894,83 @@
       <c r="X24" s="4"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="G25" s="10">
-        <v>0</v>
-      </c>
-      <c r="H25" s="10">
+      <c r="A25" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" s="22">
+        <v>0</v>
+      </c>
+      <c r="H25" s="22">
         <v>-3</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O25" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="P25" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q25" s="10">
-        <v>0</v>
-      </c>
-      <c r="R25" s="10">
-        <v>-99</v>
-      </c>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="U25" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="P25" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q25" s="22">
+        <v>0</v>
+      </c>
+      <c r="R25" s="22">
+        <v>-2</v>
+      </c>
+      <c r="S25" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="T25" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="U25" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
       <c r="X25" s="4"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G26" s="10">
         <v>0</v>
@@ -2872,14 +2986,12 @@
         <v>16</v>
       </c>
       <c r="L26" s="10"/>
-      <c r="M26" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="M26" s="10"/>
       <c r="O26" s="9" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="Q26" s="10">
         <v>0</v>
@@ -2895,22 +3007,20 @@
         <v>16</v>
       </c>
       <c r="V26" s="10"/>
-      <c r="W26" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="W26" s="10"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -2925,12 +3035,10 @@
         <v>16</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="L27" s="11"/>
-      <c r="M27" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="M27" s="11"/>
       <c r="N27" s="12"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
@@ -2945,31 +3053,29 @@
         <v>16</v>
       </c>
       <c r="U27" s="11" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="V27" s="11"/>
-      <c r="W27" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="W27" s="11"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="G28" s="10">
         <v>0</v>
@@ -2978,22 +3084,22 @@
         <v>0</v>
       </c>
       <c r="I28" s="10"/>
-      <c r="J28" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="J28" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="Q28" s="10">
         <v>0</v>
@@ -3008,215 +3114,205 @@
       <c r="U28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="V28" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="W28" s="10"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>36</v>
+      <c r="A29" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="G29" s="13">
-        <v>0</v>
-      </c>
-      <c r="H29" s="13">
-        <v>0</v>
-      </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="N29" s="14"/>
-      <c r="O29" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="P29" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q29" s="13">
-        <v>0</v>
-      </c>
-      <c r="R29" s="13">
-        <v>0</v>
-      </c>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="U29" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13" t="s">
-        <v>17</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" s="22">
+        <v>1</v>
+      </c>
+      <c r="H29" s="22">
+        <v>0</v>
+      </c>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="P29" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q29" s="22">
+        <v>0</v>
+      </c>
+      <c r="R29" s="22">
+        <v>0</v>
+      </c>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="U29" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>36</v>
+      <c r="A30" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="G30" s="13">
-        <v>0</v>
-      </c>
-      <c r="H30" s="13">
-        <v>0</v>
-      </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="N30" s="14"/>
-      <c r="O30" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="P30" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q30" s="13">
-        <v>0</v>
-      </c>
-      <c r="R30" s="13">
-        <v>0</v>
-      </c>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="U30" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13" t="s">
-        <v>17</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="G30" s="22">
+        <v>0</v>
+      </c>
+      <c r="H30" s="22">
+        <v>0</v>
+      </c>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="P30" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q30" s="22">
+        <v>0</v>
+      </c>
+      <c r="R30" s="22">
+        <v>0</v>
+      </c>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="U30" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="G31" s="10">
-        <v>0</v>
-      </c>
-      <c r="H31" s="10">
-        <v>0</v>
-      </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="P31" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q31" s="10">
-        <v>0</v>
-      </c>
-      <c r="R31" s="10">
-        <v>0</v>
-      </c>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="U31" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="A31" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>0</v>
+      </c>
+      <c r="R31" s="11">
+        <v>0</v>
+      </c>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="U31" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="G32" s="10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="10">
         <v>0</v>
@@ -3226,140 +3322,132 @@
         <v>16</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="L32" s="10"/>
-      <c r="M32" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="P32" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>0</v>
+      </c>
+      <c r="R32" s="10">
+        <v>0</v>
+      </c>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U32" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>0</v>
+      </c>
+      <c r="R33" s="10">
+        <v>0</v>
+      </c>
+      <c r="S33" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="T33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U33" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="Q32" s="10">
-        <v>0</v>
-      </c>
-      <c r="R32" s="10">
-        <v>0</v>
-      </c>
-      <c r="S32" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="T32" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="U32" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>-2</v>
       </c>
-      <c r="J33" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="L33" t="s">
-        <v>270</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O33" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="P33" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q33" s="10">
-        <v>0</v>
-      </c>
-      <c r="R33" s="10">
-        <v>0</v>
-      </c>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="U33" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="G34" s="10">
-        <v>-99</v>
-      </c>
-      <c r="H34" s="10">
-        <v>0</v>
-      </c>
-      <c r="I34" s="10"/>
       <c r="J34" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K34" t="s">
-        <v>16</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="K34" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="L34" t="s">
+        <v>253</v>
+      </c>
+      <c r="M34" s="10"/>
       <c r="O34" s="9" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="Q34" s="10">
         <v>0</v>
@@ -3371,12 +3459,234 @@
       <c r="T34" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="U34" t="s">
-        <v>16</v>
-      </c>
-      <c r="W34" s="10" t="s">
+      <c r="U34" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="G35" s="10">
+        <v>-99</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c r="O35" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>0</v>
+      </c>
+      <c r="R35" s="10">
+        <v>0</v>
+      </c>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="U35" t="s">
+        <v>16</v>
+      </c>
+      <c r="W35" s="10"/>
+      <c r="X35" s="22"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="G36" s="30">
+        <v>0</v>
+      </c>
+      <c r="H36" s="30">
+        <v>0</v>
+      </c>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="O36" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="P36" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q36" s="30">
+        <v>0</v>
+      </c>
+      <c r="R36" s="30">
+        <v>0</v>
+      </c>
+      <c r="S36" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="T36" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="U36" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="22"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="G37" s="22">
+        <v>0</v>
+      </c>
+      <c r="H37" s="22">
+        <v>0</v>
+      </c>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="G38" s="22">
+        <v>-2</v>
+      </c>
+      <c r="H38" s="22">
+        <v>0</v>
+      </c>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="P38" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q38" s="22">
+        <v>0</v>
+      </c>
+      <c r="R38" s="22">
+        <v>0</v>
+      </c>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="U38" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22" t="s">
         <v>17</v>
       </c>
+      <c r="X38" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3392,10 +3702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="A6" sqref="A6:X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3533,253 +3843,256 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="22">
+        <v>0</v>
+      </c>
+      <c r="R3" s="22">
+        <v>0</v>
+      </c>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="22">
+        <v>-3</v>
+      </c>
+      <c r="H4" s="22">
+        <v>0</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="22">
+        <v>0</v>
+      </c>
+      <c r="R4" s="22">
+        <v>0</v>
+      </c>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D5" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>0</v>
+      </c>
+      <c r="R5" s="22">
+        <v>0</v>
+      </c>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D6" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="E3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" t="s">
-        <v>91</v>
-      </c>
-      <c r="P3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="T3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="F6" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="G6" s="30">
+        <v>99</v>
+      </c>
+      <c r="H6" s="30">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="G4">
-        <v>-3</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>205</v>
-      </c>
-      <c r="M4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" t="s">
-        <v>91</v>
-      </c>
-      <c r="P4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="T4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>205</v>
-      </c>
-      <c r="M5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" t="s">
-        <v>91</v>
-      </c>
-      <c r="P5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="T5" t="s">
-        <v>16</v>
-      </c>
-      <c r="U5" t="s">
-        <v>19</v>
-      </c>
-      <c r="W5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" t="s">
-        <v>278</v>
-      </c>
-      <c r="G6">
-        <v>99</v>
-      </c>
-      <c r="H6">
-        <v>-1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" t="s">
-        <v>92</v>
-      </c>
-      <c r="P6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="T6" t="s">
-        <v>16</v>
-      </c>
-      <c r="U6" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" t="s">
-        <v>17</v>
-      </c>
+      <c r="P6" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="30">
+        <v>0</v>
+      </c>
+      <c r="R6" s="30">
+        <v>0</v>
+      </c>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3791,16 +4104,13 @@
         <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M7" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="O7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Q7">
         <v>-3</v>
@@ -3812,30 +4122,27 @@
         <v>16</v>
       </c>
       <c r="U7" t="s">
-        <v>111</v>
-      </c>
-      <c r="W7" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G8">
         <v>-3</v>
@@ -3847,19 +4154,16 @@
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L8" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="O8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3871,30 +4175,27 @@
         <v>16</v>
       </c>
       <c r="U8" t="s">
-        <v>145</v>
-      </c>
-      <c r="W8" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F9" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G9">
         <v>-3</v>
@@ -3906,16 +4207,13 @@
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>160</v>
-      </c>
-      <c r="M9" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="O9" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3927,30 +4225,27 @@
         <v>16</v>
       </c>
       <c r="U9" t="s">
-        <v>160</v>
-      </c>
-      <c r="W9" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>149</v>
+        <v>320</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>321</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -3959,33 +4254,31 @@
         <v>-4</v>
       </c>
       <c r="J10" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="K10" t="s">
-        <v>157</v>
-      </c>
-      <c r="M10" t="s">
-        <v>17</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="W10" s="22"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>152</v>
+        <v>322</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F11" t="s">
-        <v>154</v>
+        <v>323</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3999,28 +4292,26 @@
       <c r="K11" t="s">
         <v>16</v>
       </c>
-      <c r="M11" t="s">
-        <v>17</v>
-      </c>
+      <c r="W11" s="22"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F12" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -4035,19 +4326,19 @@
         <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O12" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Q12">
         <v>-3</v>
@@ -4061,151 +4352,170 @@
       <c r="U12" t="s">
         <v>16</v>
       </c>
+      <c r="V12" t="s">
+        <v>90</v>
+      </c>
       <c r="W12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="10"/>
+      <c r="A13" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="G13" s="22">
+        <v>0</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13">
-        <v>0</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="10"/>
+      <c r="A14" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="G14" s="22">
+        <v>-2</v>
+      </c>
+      <c r="H14" s="22">
+        <v>0</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>0</v>
+      </c>
+      <c r="R14" s="22">
+        <v>0</v>
+      </c>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="U14" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13">
-        <v>0</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="10"/>
+      <c r="A15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -4223,9 +4533,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="13"/>
-      <c r="M16" s="13" t="s">
-        <v>17</v>
-      </c>
+      <c r="M16" s="13"/>
       <c r="N16" s="14"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
@@ -4237,18 +4545,18 @@
       <c r="V16" s="13"/>
       <c r="W16" s="10"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -4266,9 +4574,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="13"/>
-      <c r="M17" s="13" t="s">
-        <v>17</v>
-      </c>
+      <c r="M17" s="13"/>
       <c r="N17" s="14"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
@@ -4280,18 +4586,18 @@
       <c r="V17" s="13"/>
       <c r="W17" s="10"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -4309,9 +4615,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="13"/>
-      <c r="M18" s="13" t="s">
-        <v>17</v>
-      </c>
+      <c r="M18" s="13"/>
       <c r="N18" s="14"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
@@ -4323,58 +4627,240 @@
       <c r="V18" s="13"/>
       <c r="W18" s="10"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13">
-        <v>0</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="14"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13">
-        <v>0</v>
-      </c>
-      <c r="R19" s="13">
-        <v>0</v>
-      </c>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="U19" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="V19" s="13"/>
-      <c r="W19" s="10" t="s">
-        <v>17</v>
-      </c>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="G19" s="22">
+        <v>0</v>
+      </c>
+      <c r="H19" s="22">
+        <v>0</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="P19" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q19" s="22">
+        <v>-2</v>
+      </c>
+      <c r="R19" s="22">
+        <v>0</v>
+      </c>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="U19" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="G20" s="22">
+        <v>-3</v>
+      </c>
+      <c r="H20" s="22">
+        <v>0</v>
+      </c>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="P20" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q20" s="22">
+        <v>-3</v>
+      </c>
+      <c r="R20" s="22">
+        <v>0</v>
+      </c>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="U20" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="G21" s="22">
+        <v>0</v>
+      </c>
+      <c r="H21" s="22">
+        <v>0</v>
+      </c>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="P21" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q21" s="22">
+        <v>-1</v>
+      </c>
+      <c r="R21" s="22">
+        <v>0</v>
+      </c>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="G22" s="22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="P22" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q22" s="22">
+        <v>-1</v>
+      </c>
+      <c r="R22" s="22">
+        <v>0</v>
+      </c>
+      <c r="S22" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="T22" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="U22" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4393,7 +4879,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4404,10 +4890,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>7</v>
@@ -4416,18 +4902,18 @@
         <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
@@ -4444,10 +4930,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" s="11">
         <v>0</v>
@@ -4464,10 +4950,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -4484,10 +4970,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -4504,13 +4990,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>104</v>
+        <v>286</v>
       </c>
       <c r="C6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -4523,34 +5009,34 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="A7" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -4564,10 +5050,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C9" s="11">
         <v>0</v>
@@ -4583,20 +5069,44 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0</v>
+      </c>
+      <c r="F10" s="22">
+        <v>-3</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>

--- a/event_table.xlsx
+++ b/event_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Desktop\Python\autre\alone-terminal-game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\Desktop\Alone v2 (python)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAD3754-0FB1-4650-8F1B-C2075F4DB964}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B3B1EC-803F-4E01-B90D-28806107A370}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="306" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="340">
   <si>
     <t>zone</t>
   </si>
@@ -77,12 +77,6 @@
     <t>action2</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>event</t>
   </si>
   <si>
@@ -999,9 +993,6 @@
   </si>
   <si>
     <t>La réparation fonctionne mais vous avez perdu un peu d'oxygène. Comment se fait-il que pareil incident se reproduise ?!</t>
-  </si>
-  <si>
-    <t>["lab", "random", "porte_mystérieuse"]</t>
   </si>
   <si>
     <t>A votre grande surprise, la porte s'ouvre sans broncher. L'intérieur révèle ce qui semble être une station d'analyse, dont la machinerie avancée et les diodes électroniques clignotantes ne vous évoquent rien de particulier, ce ne semble pas être lié à votre domaine d'expertise.</t>
@@ -1213,6 +1204,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1227,9 +1221,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
@@ -1516,7 +1507,7 @@
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,36 +1527,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="23" t="s">
+      <c r="A1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="23" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1643,22 +1634,22 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
@@ -1668,83 +1659,73 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="5"/>
       <c r="O3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="5"/>
       <c r="O4" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="4">
         <v>-1</v>
@@ -1753,38 +1734,34 @@
         <v>0</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
       <c r="V4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G5" s="15">
         <v>0</v>
@@ -1793,15 +1770,11 @@
         <v>-1</v>
       </c>
       <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="15"/>
@@ -1818,22 +1791,22 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -1842,20 +1815,18 @@
         <v>-3</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="J6" s="4"/>
       <c r="K6" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
       <c r="O6" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="4">
         <v>-1</v>
@@ -1864,13 +1835,13 @@
         <v>-3</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
@@ -1878,22 +1849,22 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -1902,20 +1873,16 @@
         <v>-1</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
       <c r="O7" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="4">
         <v>0</v>
@@ -1924,34 +1891,30 @@
         <v>-1</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -1960,20 +1923,18 @@
         <v>-1</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
       <c r="O8" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="4">
         <v>0</v>
@@ -1982,36 +1943,34 @@
         <v>-1</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="T8" s="4"/>
       <c r="U8" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -2021,19 +1980,19 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="5"/>
       <c r="O9" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q9" s="4">
         <v>-2</v>
@@ -2043,10 +2002,10 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
@@ -2054,22 +2013,22 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G10" s="4">
         <v>-2</v>
@@ -2078,22 +2037,20 @@
         <v>-1</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
       <c r="O10" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="4">
         <v>0</v>
@@ -2102,11 +2059,9 @@
         <v>-1</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="T10" s="4"/>
       <c r="U10" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
@@ -2114,22 +2069,22 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="G11" s="4">
         <v>2</v>
@@ -2138,20 +2093,18 @@
         <v>-3</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
       <c r="O11" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="4">
         <v>0</v>
@@ -2160,11 +2113,9 @@
         <v>-1</v>
       </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="T11" s="4"/>
       <c r="U11" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
@@ -2172,22 +2123,22 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -2196,20 +2147,18 @@
         <v>-1</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
       <c r="O12" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q12" s="4">
         <v>-1</v>
@@ -2218,36 +2167,34 @@
         <v>-1</v>
       </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="T12" s="4"/>
       <c r="U12" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="G13" s="4">
         <v>-1</v>
@@ -2256,11 +2203,9 @@
         <v>-1</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -2278,22 +2223,22 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -2303,10 +2248,10 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -2324,22 +2269,22 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -2349,19 +2294,19 @@
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
       <c r="O15" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="4">
         <v>0</v>
@@ -2370,11 +2315,9 @@
         <v>-1</v>
       </c>
       <c r="S15" s="4"/>
-      <c r="T15" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="T15" s="4"/>
       <c r="U15" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
@@ -2382,22 +2325,22 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -2406,22 +2349,18 @@
         <v>-1</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
       <c r="O16" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="4">
         <v>0</v>
@@ -2430,33 +2369,29 @@
         <v>-1</v>
       </c>
       <c r="S16" s="4"/>
-      <c r="T16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G17" s="4">
         <v>-1</v>
@@ -2465,20 +2400,16 @@
         <v>-1</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
       <c r="O17" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="4">
         <v>0</v>
@@ -2487,36 +2418,32 @@
         <v>-1</v>
       </c>
       <c r="S17" s="4"/>
-      <c r="T17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
       <c r="V17" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G18" s="4">
         <v>-1</v>
@@ -2525,22 +2452,18 @@
         <v>-3</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="5"/>
       <c r="O18" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q18" s="4">
         <v>-2</v>
@@ -2549,36 +2472,32 @@
         <v>-1</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
@@ -2587,20 +2506,16 @@
         <v>-1</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
       <c r="O19" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="4">
         <v>0</v>
@@ -2609,34 +2524,30 @@
         <v>-1</v>
       </c>
       <c r="S19" s="4"/>
-      <c r="T19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
@@ -2645,20 +2556,16 @@
         <v>-1</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
       <c r="O20" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="4">
         <v>0</v>
@@ -2667,34 +2574,30 @@
         <v>-1</v>
       </c>
       <c r="S20" s="4"/>
-      <c r="T20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
@@ -2703,22 +2606,18 @@
         <v>-1</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
       <c r="O21" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q21" s="4">
         <v>0</v>
@@ -2727,34 +2626,30 @@
         <v>-1</v>
       </c>
       <c r="S21" s="4"/>
-      <c r="T21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
     </row>
     <row r="22" spans="1:26" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E22" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>142</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="G22" s="15">
         <v>0</v>
@@ -2763,20 +2658,16 @@
         <v>99</v>
       </c>
       <c r="I22" s="15"/>
-      <c r="J22" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
       <c r="N22" s="16"/>
       <c r="O22" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q22" s="15">
         <v>0</v>
@@ -2785,12 +2676,8 @@
         <v>-2</v>
       </c>
       <c r="S22" s="15"/>
-      <c r="T22" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="U22" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
       <c r="V22" s="15"/>
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
@@ -2798,22 +2685,22 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>202</v>
+        <v>209</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>200</v>
       </c>
       <c r="G23" s="11">
         <v>0</v>
@@ -2823,19 +2710,17 @@
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="P23" s="29" t="s">
-        <v>212</v>
+      <c r="O23" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="P23" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="Q23" s="11">
         <v>0</v>
@@ -2845,34 +2730,32 @@
       </c>
       <c r="S23" s="11"/>
       <c r="T23" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="U23" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>215</v>
-      </c>
       <c r="G24" s="4">
         <v>0</v>
       </c>
@@ -2880,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M24" s="4"/>
       <c r="Q24" s="4"/>
@@ -2895,22 +2778,22 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G25" s="22">
         <v>0</v>
@@ -2919,20 +2802,18 @@
         <v>-3</v>
       </c>
       <c r="I25" s="22"/>
-      <c r="J25" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="J25" s="22"/>
       <c r="K25" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
       <c r="O25" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P25" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q25" s="22">
         <v>0</v>
@@ -2941,13 +2822,11 @@
         <v>-2</v>
       </c>
       <c r="S25" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="T25" s="22" t="s">
-        <v>16</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="T25" s="22"/>
       <c r="U25" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="V25" s="22"/>
       <c r="W25" s="22"/>
@@ -2955,22 +2834,22 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>224</v>
-      </c>
       <c r="F26" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G26" s="10">
         <v>0</v>
@@ -2979,19 +2858,15 @@
         <v>0</v>
       </c>
       <c r="I26" s="10"/>
-      <c r="J26" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="O26" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q26" s="10">
         <v>0</v>
@@ -3000,27 +2875,23 @@
         <v>0</v>
       </c>
       <c r="S26" s="10"/>
-      <c r="T26" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="U26" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -3031,11 +2902,9 @@
         <v>0</v>
       </c>
       <c r="I27" s="11"/>
-      <c r="J27" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="J27" s="11"/>
       <c r="K27" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
@@ -3049,33 +2918,31 @@
         <v>0</v>
       </c>
       <c r="S27" s="11"/>
-      <c r="T27" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="T27" s="11"/>
       <c r="U27" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G28" s="10">
         <v>0</v>
@@ -3084,22 +2951,18 @@
         <v>0</v>
       </c>
       <c r="I28" s="10"/>
-      <c r="J28" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
       <c r="L28" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q28" s="10">
         <v>0</v>
@@ -3108,35 +2971,31 @@
         <v>0</v>
       </c>
       <c r="S28" s="10"/>
-      <c r="T28" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="U28" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
       <c r="V28" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="W28" s="10"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G29" s="22">
         <v>1</v>
@@ -3145,55 +3004,51 @@
         <v>0</v>
       </c>
       <c r="I29" s="22"/>
-      <c r="J29" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="J29" s="22"/>
       <c r="K29" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
       <c r="O29" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="P29" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q29" s="22">
+        <v>0</v>
+      </c>
+      <c r="R29" s="22">
+        <v>0</v>
+      </c>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22" t="s">
         <v>247</v>
-      </c>
-      <c r="P29" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q29" s="22">
-        <v>0</v>
-      </c>
-      <c r="R29" s="22">
-        <v>0</v>
-      </c>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="U29" s="22" t="s">
-        <v>249</v>
       </c>
       <c r="V29" s="22"/>
       <c r="W29" s="22"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G30" s="22">
         <v>0</v>
@@ -3202,79 +3057,73 @@
         <v>0</v>
       </c>
       <c r="I30" s="22"/>
-      <c r="J30" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="J30" s="22"/>
       <c r="K30" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
       <c r="O30" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P30" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q30" s="22">
+        <v>0</v>
+      </c>
+      <c r="R30" s="22">
+        <v>0</v>
+      </c>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22" t="s">
         <v>248</v>
-      </c>
-      <c r="Q30" s="22">
-        <v>0</v>
-      </c>
-      <c r="R30" s="22">
-        <v>0</v>
-      </c>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="U30" s="22" t="s">
-        <v>250</v>
       </c>
       <c r="V30" s="22"/>
       <c r="W30" s="22"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11" t="s">
         <v>273</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="G31" s="11">
-        <v>0</v>
-      </c>
-      <c r="H31" s="11">
-        <v>0</v>
-      </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>275</v>
       </c>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q31" s="11">
         <v>0</v>
@@ -3283,55 +3132,51 @@
         <v>0</v>
       </c>
       <c r="S31" s="11"/>
-      <c r="T31" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="T31" s="11"/>
       <c r="U31" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="G32" s="10">
-        <v>0</v>
-      </c>
-      <c r="H32" s="10">
-        <v>0</v>
-      </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>276</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q32" s="10">
         <v>0</v>
@@ -3340,33 +3185,31 @@
         <v>0</v>
       </c>
       <c r="S32" s="10"/>
-      <c r="T32" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="T32" s="10"/>
       <c r="U32" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D33" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>234</v>
       </c>
       <c r="G33" s="10">
         <v>-1</v>
@@ -3375,57 +3218,53 @@
         <v>0</v>
       </c>
       <c r="I33" s="10"/>
-      <c r="J33" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="J33" s="10"/>
       <c r="K33" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>0</v>
+      </c>
+      <c r="R33" s="10">
+        <v>0</v>
+      </c>
+      <c r="S33" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="P33" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q33" s="10">
-        <v>0</v>
-      </c>
-      <c r="R33" s="10">
-        <v>0</v>
-      </c>
-      <c r="S33" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="T33" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="T33" s="10"/>
       <c r="U33" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3433,21 +3272,19 @@
       <c r="H34">
         <v>-2</v>
       </c>
-      <c r="J34" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="J34" s="10"/>
       <c r="K34" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L34" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M34" s="10"/>
       <c r="O34" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q34" s="10">
         <v>0</v>
@@ -3456,33 +3293,31 @@
         <v>0</v>
       </c>
       <c r="S34" s="10"/>
-      <c r="T34" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="T34" s="10"/>
       <c r="U34" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E35" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="G35" s="10">
         <v>-99</v>
@@ -3491,18 +3326,13 @@
         <v>0</v>
       </c>
       <c r="I35" s="10"/>
-      <c r="J35" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" t="s">
-        <v>16</v>
-      </c>
+      <c r="J35" s="10"/>
       <c r="M35" s="10"/>
       <c r="O35" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q35" s="10">
         <v>0</v>
@@ -3511,95 +3341,82 @@
         <v>0</v>
       </c>
       <c r="S35" s="10"/>
-      <c r="T35" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="U35" t="s">
-        <v>16</v>
-      </c>
+      <c r="T35" s="10"/>
       <c r="W35" s="10"/>
       <c r="X35" s="22"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="30" t="s">
+      <c r="A36" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="E36" s="30" t="s">
+      <c r="C36" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="G36" s="24">
+        <v>0</v>
+      </c>
+      <c r="H36" s="24">
+        <v>0</v>
+      </c>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="O36" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="P36" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="F36" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="G36" s="30">
-        <v>0</v>
-      </c>
-      <c r="H36" s="30">
-        <v>0</v>
-      </c>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="O36" s="30" t="s">
+      <c r="Q36" s="24">
+        <v>0</v>
+      </c>
+      <c r="R36" s="24">
+        <v>0</v>
+      </c>
+      <c r="S36" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="P36" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q36" s="30">
-        <v>0</v>
-      </c>
-      <c r="R36" s="30">
-        <v>0</v>
-      </c>
-      <c r="S36" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="T36" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="U36" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
       <c r="X36" s="22"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="D37" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="E37" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="E37" s="22" t="s">
-        <v>318</v>
-      </c>
       <c r="F37" s="22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G37" s="22">
         <v>0</v>
@@ -3608,12 +3425,8 @@
         <v>0</v>
       </c>
       <c r="I37" s="22"/>
-      <c r="J37" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -3630,22 +3443,22 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B38" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G38" s="22">
         <v>-2</v>
@@ -3654,20 +3467,16 @@
         <v>0</v>
       </c>
       <c r="I38" s="22"/>
-      <c r="J38" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P38" s="22" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q38" s="22">
         <v>0</v>
@@ -3677,15 +3486,13 @@
       </c>
       <c r="S38" s="22"/>
       <c r="T38" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="U38" s="22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="V38" s="22"/>
-      <c r="W38" s="22" t="s">
-        <v>17</v>
-      </c>
+      <c r="W38" s="22"/>
       <c r="X38" s="22"/>
     </row>
   </sheetData>
@@ -3705,7 +3512,7 @@
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:X6"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3737,36 +3544,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
+      <c r="A1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="27" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3844,23 +3651,23 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>85</v>
-      </c>
       <c r="G3" s="22">
         <v>0</v>
       </c>
@@ -3868,20 +3675,16 @@
         <v>0</v>
       </c>
       <c r="I3" s="22"/>
-      <c r="J3" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q3" s="22">
         <v>0</v>
@@ -3890,33 +3693,29 @@
         <v>0</v>
       </c>
       <c r="S3" s="22"/>
-      <c r="T3" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
       <c r="V3" s="22"/>
       <c r="W3" s="22"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>78</v>
-      </c>
       <c r="D4" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>83</v>
-      </c>
       <c r="F4" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G4" s="22">
         <v>-3</v>
@@ -3925,20 +3724,18 @@
         <v>0</v>
       </c>
       <c r="I4" s="22"/>
-      <c r="J4" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="J4" s="22"/>
       <c r="K4" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L4" s="22"/>
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
       <c r="O4" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="22">
         <v>0</v>
@@ -3947,33 +3744,29 @@
         <v>0</v>
       </c>
       <c r="S4" s="22"/>
-      <c r="T4" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="U4" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
       <c r="V4" s="22"/>
       <c r="W4" s="22"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="E5" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>83</v>
-      </c>
       <c r="F5" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G5" s="22">
         <v>0</v>
@@ -3982,22 +3775,20 @@
         <v>0</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>16</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J5" s="22"/>
       <c r="K5" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L5" s="22"/>
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
       <c r="O5" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="22">
         <v>0</v>
@@ -4006,93 +3797,87 @@
         <v>0</v>
       </c>
       <c r="S5" s="22"/>
-      <c r="T5" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="T5" s="22"/>
       <c r="U5" s="22" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="A6" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="E6" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="G6" s="30">
+      <c r="F6" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="G6" s="24">
         <v>99</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="24">
         <v>-1</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="P6" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="30">
-        <v>0</v>
-      </c>
-      <c r="R6" s="30">
-        <v>0</v>
-      </c>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="U6" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>0</v>
+      </c>
+      <c r="R6" s="24">
+        <v>0</v>
+      </c>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" t="s">
-        <v>106</v>
-      </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4100,17 +3885,14 @@
       <c r="H7">
         <v>-1</v>
       </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
       <c r="K7" t="s">
+        <v>105</v>
+      </c>
+      <c r="O7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" t="s">
         <v>107</v>
-      </c>
-      <c r="O7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P7" t="s">
-        <v>109</v>
       </c>
       <c r="Q7">
         <v>-3</v>
@@ -4118,31 +3900,28 @@
       <c r="R7">
         <v>-1</v>
       </c>
-      <c r="T7" t="s">
-        <v>16</v>
-      </c>
       <c r="U7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G8">
         <v>-3</v>
@@ -4150,20 +3929,17 @@
       <c r="H8">
         <v>-1</v>
       </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
       <c r="K8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -4171,31 +3947,28 @@
       <c r="R8">
         <v>-1</v>
       </c>
-      <c r="T8" t="s">
-        <v>16</v>
-      </c>
       <c r="U8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" t="s">
         <v>160</v>
-      </c>
-      <c r="E9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" t="s">
-        <v>162</v>
       </c>
       <c r="G9">
         <v>-3</v>
@@ -4203,17 +3976,14 @@
       <c r="H9">
         <v>-1</v>
       </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
       <c r="K9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -4221,31 +3991,28 @@
       <c r="R9">
         <v>-1</v>
       </c>
-      <c r="T9" t="s">
-        <v>16</v>
-      </c>
       <c r="U9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4254,31 +4021,31 @@
         <v>-4</v>
       </c>
       <c r="J10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="W10" s="22"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -4286,32 +4053,26 @@
       <c r="H11">
         <v>-2</v>
       </c>
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
-      </c>
       <c r="W11" s="22"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -4319,26 +4080,20 @@
       <c r="H12">
         <v>99</v>
       </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
       <c r="L12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q12">
         <v>-3</v>
@@ -4346,37 +4101,31 @@
       <c r="R12">
         <v>99</v>
       </c>
-      <c r="T12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U12" t="s">
-        <v>16</v>
-      </c>
       <c r="V12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="W12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G13" s="22">
         <v>0</v>
@@ -4386,10 +4135,10 @@
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
@@ -4406,22 +4155,22 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E14" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>303</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>305</v>
       </c>
       <c r="G14" s="22">
         <v>-2</v>
@@ -4431,19 +4180,19 @@
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="22" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="22">
         <v>0</v>
@@ -4453,26 +4202,26 @@
       </c>
       <c r="S14" s="22"/>
       <c r="T14" s="22" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="U14" s="22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="V14" s="22"/>
       <c r="W14" s="22"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -4483,15 +4232,11 @@
         <v>0</v>
       </c>
       <c r="I15" s="11"/>
-      <c r="J15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="11"/>
@@ -4506,16 +4251,16 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -4526,12 +4271,8 @@
         <v>0</v>
       </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="14"/>
@@ -4547,16 +4288,16 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -4567,12 +4308,8 @@
         <v>0</v>
       </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="14"/>
@@ -4588,16 +4325,16 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -4608,12 +4345,8 @@
         <v>0</v>
       </c>
       <c r="I18" s="13"/>
-      <c r="J18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="14"/>
@@ -4629,22 +4362,22 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G19" s="22">
         <v>0</v>
@@ -4654,19 +4387,19 @@
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P19" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q19" s="22">
         <v>-2</v>
@@ -4676,10 +4409,10 @@
       </c>
       <c r="S19" s="22"/>
       <c r="T19" s="22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="U19" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="V19" s="22"/>
       <c r="W19" s="22"/>
@@ -4687,22 +4420,22 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E20" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>293</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>295</v>
       </c>
       <c r="G20" s="22">
         <v>-3</v>
@@ -4711,20 +4444,16 @@
         <v>0</v>
       </c>
       <c r="I20" s="22"/>
-      <c r="J20" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="P20" s="22" t="s">
         <v>294</v>
-      </c>
-      <c r="P20" s="22" t="s">
-        <v>296</v>
       </c>
       <c r="Q20" s="22">
         <v>-3</v>
@@ -4733,34 +4462,30 @@
         <v>0</v>
       </c>
       <c r="S20" s="22"/>
-      <c r="T20" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="U20" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
       <c r="V20" s="22"/>
       <c r="W20" s="22"/>
       <c r="X20" s="22"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G21" s="22">
         <v>0</v>
@@ -4769,20 +4494,16 @@
         <v>0</v>
       </c>
       <c r="I21" s="22"/>
-      <c r="J21" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P21" s="22" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q21" s="22">
         <v>-1</v>
@@ -4791,34 +4512,30 @@
         <v>0</v>
       </c>
       <c r="S21" s="22"/>
-      <c r="T21" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="U21" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
       <c r="V21" s="22"/>
       <c r="W21" s="22"/>
       <c r="X21" s="22"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G22" s="22">
         <v>0</v>
@@ -4827,22 +4544,20 @@
         <v>0</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>16</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="J22" s="22"/>
       <c r="K22" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P22" s="22" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Q22" s="22">
         <v>-1</v>
@@ -4851,13 +4566,11 @@
         <v>0</v>
       </c>
       <c r="S22" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="T22" s="22" t="s">
-        <v>16</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="T22" s="22"/>
       <c r="U22" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="V22" s="22"/>
       <c r="W22" s="22"/>
@@ -4890,10 +4603,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>7</v>
@@ -4902,18 +4615,18 @@
         <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
@@ -4930,10 +4643,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" s="11">
         <v>0</v>
@@ -4950,10 +4663,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -4970,10 +4683,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -4990,10 +4703,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
@@ -5010,10 +4723,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C7" s="22">
         <v>0</v>
@@ -5030,10 +4743,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
@@ -5050,10 +4763,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>239</v>
       </c>
       <c r="C9" s="11">
         <v>0</v>
@@ -5070,10 +4783,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C10" s="22">
         <v>0</v>
@@ -5090,10 +4803,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C11" s="11">
         <v>0</v>

--- a/event_table.xlsx
+++ b/event_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Desktop\Python\autre\alone-terminal-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAD3754-0FB1-4650-8F1B-C2075F4DB964}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C8F26D-E9D6-4E9D-97C3-4D84078269FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="306" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -824,9 +824,6 @@
     <t>jardins</t>
   </si>
   <si>
-    <t>Tandis que votre regard divague, vous entendez un curieux grincement métallique et vous avez l'impression d'apercevoir une forme miroitant au soleil au sommet d'une dune avoisinante. Puis, plus rien.</t>
-  </si>
-  <si>
     <t>bombonne_end</t>
   </si>
   <si>
@@ -1056,6 +1053,9 @@
   </si>
   <si>
     <t>La porte s'ouvre sans un seul bruit. Celle-ci protégeait en fait un bureau en acier trempé sur lequel repose un ordinateur qui sort de sa veille dès votre entrée dans la pièce. Celui-ci ne vous laisse accéder qu'à une unique note.  Rapport-XX/XX/XX\  :  Le sujet s'est échappé du secteur 4. Comment est-ce possible avec le renforcement de la sécurité ? Envoyez une équipe sur place et ordonnez au personnel sans combi d'évitez la zone de h-s (violette), il faudra certainement encore drainer l'oxygène pour en venir à bout. Tandis que vous méditez cette lecture vous apercevez derrière le bureau une station de soin personnel, un matériel qui coûte une fortune, en effet dès utilisation l'effet est immédiat, vous vous sentez rajeuni de 10 ans.</t>
+  </si>
+  <si>
+    <t>Vous observez plus attentivement. Vous entendez un curieux grincement métallique et vous avez l'impression d'apercevoir une forme miroitant au soleil au sommet de la dune. Puis, plus rien.</t>
   </si>
 </sst>
 </file>
@@ -1213,6 +1213,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1227,9 +1230,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
@@ -1516,7 +1516,7 @@
   <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,36 +1536,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="23" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="23" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2391,7 +2391,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>265</v>
+        <v>342</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>57</v>
@@ -2809,10 +2809,10 @@
       <c r="D23" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="23" t="s">
         <v>202</v>
       </c>
       <c r="G23" s="11">
@@ -2831,10 +2831,10 @@
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="P23" s="29" t="s">
+      <c r="O23" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="P23" s="23" t="s">
         <v>212</v>
       </c>
       <c r="Q23" s="11">
@@ -2941,7 +2941,7 @@
         <v>-2</v>
       </c>
       <c r="S25" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="T25" s="22" t="s">
         <v>16</v>
@@ -3020,7 +3020,7 @@
         <v>206</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -3091,7 +3091,7 @@
         <v>16</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
@@ -3115,7 +3115,7 @@
         <v>16</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="W28" s="10"/>
     </row>
@@ -3136,7 +3136,7 @@
         <v>120</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G29" s="22">
         <v>1</v>
@@ -3193,7 +3193,7 @@
         <v>120</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G30" s="22">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>250</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
@@ -3243,16 +3243,16 @@
         <v>33</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>120</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G31" s="11">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         <v>16</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
@@ -3287,7 +3287,7 @@
         <v>16</v>
       </c>
       <c r="U31" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
@@ -3300,7 +3300,7 @@
         <v>33</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>227</v>
@@ -3322,7 +3322,7 @@
         <v>16</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
@@ -3344,7 +3344,7 @@
         <v>16</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
@@ -3357,7 +3357,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>232</v>
@@ -3379,7 +3379,7 @@
         <v>16</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
@@ -3403,7 +3403,7 @@
         <v>16</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
@@ -3416,10 +3416,10 @@
         <v>33</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>256</v>
@@ -3437,7 +3437,7 @@
         <v>16</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s">
         <v>253</v>
@@ -3460,7 +3460,7 @@
         <v>16</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
@@ -3521,65 +3521,65 @@
       <c r="X35" s="22"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="E36" s="30" t="s">
+      <c r="C36" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="G36" s="24">
+        <v>0</v>
+      </c>
+      <c r="H36" s="24">
+        <v>0</v>
+      </c>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="O36" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="F36" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="G36" s="30">
-        <v>0</v>
-      </c>
-      <c r="H36" s="30">
-        <v>0</v>
-      </c>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="O36" s="30" t="s">
+      <c r="P36" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="P36" s="30" t="s">
+      <c r="Q36" s="24">
+        <v>0</v>
+      </c>
+      <c r="R36" s="24">
+        <v>0</v>
+      </c>
+      <c r="S36" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="Q36" s="30">
-        <v>0</v>
-      </c>
-      <c r="R36" s="30">
-        <v>0</v>
-      </c>
-      <c r="S36" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="T36" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="U36" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
+      <c r="T36" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="U36" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
       <c r="X36" s="22"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
@@ -3590,16 +3590,16 @@
         <v>12</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D37" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="F37" s="22" t="s">
         <v>316</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>317</v>
       </c>
       <c r="G37" s="22">
         <v>0</v>
@@ -3636,16 +3636,16 @@
         <v>12</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D38" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="E38" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="F38" s="22" t="s">
         <v>329</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>330</v>
       </c>
       <c r="G38" s="22">
         <v>-2</v>
@@ -3664,10 +3664,10 @@
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="P38" s="22" t="s">
         <v>331</v>
-      </c>
-      <c r="P38" s="22" t="s">
-        <v>332</v>
       </c>
       <c r="Q38" s="22">
         <v>0</v>
@@ -3677,10 +3677,10 @@
       </c>
       <c r="S38" s="22"/>
       <c r="T38" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="U38" s="22" t="s">
         <v>312</v>
-      </c>
-      <c r="U38" s="22" t="s">
-        <v>313</v>
       </c>
       <c r="V38" s="22"/>
       <c r="W38" s="22" t="s">
@@ -3737,36 +3737,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="27" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3929,7 +3929,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L4" s="22"/>
       <c r="M4" s="22"/>
@@ -3988,7 +3988,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L5" s="22"/>
       <c r="M5" s="22"/>
@@ -4010,70 +4010,70 @@
         <v>16</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="G6" s="30">
+      <c r="F6" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="G6" s="24">
         <v>99</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="24">
         <v>-1</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="31" t="s">
+      <c r="I6" s="24"/>
+      <c r="J6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="O6" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="P6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="30">
-        <v>0</v>
-      </c>
-      <c r="R6" s="30">
-        <v>0</v>
-      </c>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="U6" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
+      <c r="Q6" s="24">
+        <v>0</v>
+      </c>
+      <c r="R6" s="24">
+        <v>0</v>
+      </c>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -4239,13 +4239,13 @@
         <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E10" t="s">
         <v>145</v>
       </c>
       <c r="F10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4272,13 +4272,13 @@
         <v>147</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E11" t="s">
         <v>146</v>
       </c>
       <c r="F11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -4370,13 +4370,13 @@
         <v>201</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G13" s="22">
         <v>0</v>
@@ -4415,13 +4415,13 @@
         <v>241</v>
       </c>
       <c r="D14" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>303</v>
-      </c>
       <c r="F14" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G14" s="22">
         <v>-2</v>
@@ -4440,10 +4440,10 @@
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="22">
         <v>0</v>
@@ -4472,7 +4472,7 @@
         <v>242</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -4638,13 +4638,13 @@
         <v>216</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E19" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="F19" s="22" t="s">
         <v>288</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>289</v>
       </c>
       <c r="G19" s="22">
         <v>0</v>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K19" s="22" t="s">
         <v>261</v>
@@ -4663,10 +4663,10 @@
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="P19" s="22" t="s">
         <v>290</v>
-      </c>
-      <c r="P19" s="22" t="s">
-        <v>291</v>
       </c>
       <c r="Q19" s="22">
         <v>-2</v>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="S19" s="22"/>
       <c r="T19" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U19" s="22" t="s">
         <v>261</v>
@@ -4693,16 +4693,16 @@
         <v>33</v>
       </c>
       <c r="C20" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>293</v>
-      </c>
       <c r="F20" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G20" s="22">
         <v>-3</v>
@@ -4721,10 +4721,10 @@
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P20" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q20" s="22">
         <v>-3</v>
@@ -4751,16 +4751,16 @@
         <v>33</v>
       </c>
       <c r="C21" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>298</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>299</v>
       </c>
       <c r="G21" s="22">
         <v>0</v>
@@ -4779,10 +4779,10 @@
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P21" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q21" s="22">
         <v>-1</v>
@@ -4809,16 +4809,16 @@
         <v>33</v>
       </c>
       <c r="C22" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>334</v>
-      </c>
       <c r="F22" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G22" s="22">
         <v>0</v>
@@ -4827,22 +4827,22 @@
         <v>0</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J22" s="22" t="s">
         <v>16</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P22" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q22" s="22">
         <v>-1</v>
@@ -4851,13 +4851,13 @@
         <v>0</v>
       </c>
       <c r="S22" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="T22" s="22" t="s">
         <v>16</v>
       </c>
       <c r="U22" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V22" s="22"/>
       <c r="W22" s="22"/>
@@ -4993,7 +4993,7 @@
         <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
@@ -5070,10 +5070,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="C10" s="22">
         <v>0</v>
@@ -5090,10 +5090,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="C11" s="11">
         <v>0</v>

--- a/event_table.xlsx
+++ b/event_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\Desktop\Python\autre\alone-terminal-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C8F26D-E9D6-4E9D-97C3-4D84078269FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E227E5-5F38-44D0-B619-5AA50D2DE063}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="306" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="306" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="340">
   <si>
     <t>zone</t>
   </si>
@@ -77,12 +77,6 @@
     <t>action2</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>event</t>
   </si>
   <si>
@@ -996,9 +990,6 @@
   </si>
   <si>
     <t>La réparation fonctionne mais vous avez perdu un peu d'oxygène. Comment se fait-il que pareil incident se reproduise ?!</t>
-  </si>
-  <si>
-    <t>["lab", "random", "porte_mystérieuse"]</t>
   </si>
   <si>
     <t>A votre grande surprise, la porte s'ouvre sans broncher. L'intérieur révèle ce qui semble être une station d'analyse, dont la machinerie avancée et les diodes électroniques clignotantes ne vous évoquent rien de particulier, ce ne semble pas être lié à votre domaine d'expertise.</t>
@@ -1515,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,7 +1528,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -1643,22 +1634,22 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
@@ -1668,83 +1659,73 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="5"/>
       <c r="O3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="5"/>
       <c r="O4" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="4">
         <v>-1</v>
@@ -1753,38 +1734,34 @@
         <v>0</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
       <c r="V4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G5" s="15">
         <v>0</v>
@@ -1793,15 +1770,11 @@
         <v>-1</v>
       </c>
       <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="15"/>
@@ -1818,22 +1791,22 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -1842,20 +1815,18 @@
         <v>-3</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="J6" s="4"/>
       <c r="K6" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
       <c r="O6" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="4">
         <v>-1</v>
@@ -1864,13 +1835,13 @@
         <v>-3</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
@@ -1878,22 +1849,22 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -1902,20 +1873,16 @@
         <v>-1</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
       <c r="O7" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="4">
         <v>0</v>
@@ -1924,34 +1891,30 @@
         <v>-1</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -1960,20 +1923,18 @@
         <v>-1</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
       <c r="O8" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="4">
         <v>0</v>
@@ -1982,36 +1943,34 @@
         <v>-1</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="T8" s="4"/>
       <c r="U8" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -2021,19 +1980,19 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="5"/>
       <c r="O9" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q9" s="4">
         <v>-2</v>
@@ -2043,10 +2002,10 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
@@ -2054,22 +2013,22 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G10" s="4">
         <v>-2</v>
@@ -2078,22 +2037,20 @@
         <v>-1</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
       <c r="O10" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="4">
         <v>0</v>
@@ -2102,11 +2059,9 @@
         <v>-1</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="T10" s="4"/>
       <c r="U10" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
@@ -2114,22 +2069,22 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="G11" s="4">
         <v>2</v>
@@ -2138,20 +2093,18 @@
         <v>-3</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
       <c r="O11" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="4">
         <v>0</v>
@@ -2160,11 +2113,9 @@
         <v>-1</v>
       </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="T11" s="4"/>
       <c r="U11" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
@@ -2172,22 +2123,22 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -2196,20 +2147,18 @@
         <v>-1</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
       <c r="O12" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q12" s="4">
         <v>-1</v>
@@ -2218,36 +2167,34 @@
         <v>-1</v>
       </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="T12" s="4"/>
       <c r="U12" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="G13" s="4">
         <v>-1</v>
@@ -2256,11 +2203,9 @@
         <v>-1</v>
       </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -2278,22 +2223,22 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -2303,10 +2248,10 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -2324,22 +2269,22 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -2349,19 +2294,19 @@
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
       <c r="O15" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="4">
         <v>0</v>
@@ -2370,11 +2315,9 @@
         <v>-1</v>
       </c>
       <c r="S15" s="4"/>
-      <c r="T15" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="T15" s="4"/>
       <c r="U15" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
@@ -2382,22 +2325,22 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -2406,22 +2349,18 @@
         <v>-1</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
       <c r="O16" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="4">
         <v>0</v>
@@ -2430,33 +2369,29 @@
         <v>-1</v>
       </c>
       <c r="S16" s="4"/>
-      <c r="T16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G17" s="4">
         <v>-1</v>
@@ -2465,20 +2400,16 @@
         <v>-1</v>
       </c>
       <c r="I17" s="4"/>
-      <c r="J17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
       <c r="O17" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="4">
         <v>0</v>
@@ -2487,36 +2418,32 @@
         <v>-1</v>
       </c>
       <c r="S17" s="4"/>
-      <c r="T17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
       <c r="V17" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G18" s="4">
         <v>-1</v>
@@ -2525,22 +2452,18 @@
         <v>-3</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="5"/>
       <c r="O18" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q18" s="4">
         <v>-2</v>
@@ -2549,36 +2472,32 @@
         <v>-1</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
@@ -2587,20 +2506,16 @@
         <v>-1</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
       <c r="O19" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="4">
         <v>0</v>
@@ -2609,34 +2524,30 @@
         <v>-1</v>
       </c>
       <c r="S19" s="4"/>
-      <c r="T19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
@@ -2645,20 +2556,16 @@
         <v>-1</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="J20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
       <c r="O20" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="4">
         <v>0</v>
@@ -2667,34 +2574,30 @@
         <v>-1</v>
       </c>
       <c r="S20" s="4"/>
-      <c r="T20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G21" s="4">
         <v>0</v>
@@ -2703,22 +2606,18 @@
         <v>-1</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
       <c r="O21" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q21" s="4">
         <v>0</v>
@@ -2727,34 +2626,30 @@
         <v>-1</v>
       </c>
       <c r="S21" s="4"/>
-      <c r="T21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
     </row>
     <row r="22" spans="1:26" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E22" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>142</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="G22" s="15">
         <v>0</v>
@@ -2763,20 +2658,16 @@
         <v>99</v>
       </c>
       <c r="I22" s="15"/>
-      <c r="J22" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
       <c r="N22" s="16"/>
       <c r="O22" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q22" s="15">
         <v>0</v>
@@ -2785,12 +2676,8 @@
         <v>-2</v>
       </c>
       <c r="S22" s="15"/>
-      <c r="T22" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="U22" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
       <c r="V22" s="15"/>
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
@@ -2798,22 +2685,22 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G23" s="11">
         <v>0</v>
@@ -2823,19 +2710,17 @@
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="12"/>
       <c r="O23" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P23" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q23" s="11">
         <v>0</v>
@@ -2845,34 +2730,32 @@
       </c>
       <c r="S23" s="11"/>
       <c r="T23" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="U23" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>215</v>
-      </c>
       <c r="G24" s="4">
         <v>0</v>
       </c>
@@ -2880,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M24" s="4"/>
       <c r="Q24" s="4"/>
@@ -2895,22 +2778,22 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G25" s="22">
         <v>0</v>
@@ -2919,20 +2802,18 @@
         <v>-3</v>
       </c>
       <c r="I25" s="22"/>
-      <c r="J25" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="J25" s="22"/>
       <c r="K25" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
       <c r="O25" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P25" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q25" s="22">
         <v>0</v>
@@ -2941,13 +2822,11 @@
         <v>-2</v>
       </c>
       <c r="S25" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="T25" s="22" t="s">
-        <v>16</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="T25" s="22"/>
       <c r="U25" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="V25" s="22"/>
       <c r="W25" s="22"/>
@@ -2955,22 +2834,22 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>224</v>
-      </c>
       <c r="F26" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G26" s="10">
         <v>0</v>
@@ -2979,19 +2858,15 @@
         <v>0</v>
       </c>
       <c r="I26" s="10"/>
-      <c r="J26" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="O26" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q26" s="10">
         <v>0</v>
@@ -3000,27 +2875,23 @@
         <v>0</v>
       </c>
       <c r="S26" s="10"/>
-      <c r="T26" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="U26" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -3031,11 +2902,9 @@
         <v>0</v>
       </c>
       <c r="I27" s="11"/>
-      <c r="J27" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="J27" s="11"/>
       <c r="K27" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
@@ -3049,33 +2918,31 @@
         <v>0</v>
       </c>
       <c r="S27" s="11"/>
-      <c r="T27" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="T27" s="11"/>
       <c r="U27" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G28" s="10">
         <v>0</v>
@@ -3084,22 +2951,18 @@
         <v>0</v>
       </c>
       <c r="I28" s="10"/>
-      <c r="J28" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
       <c r="L28" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q28" s="10">
         <v>0</v>
@@ -3108,35 +2971,31 @@
         <v>0</v>
       </c>
       <c r="S28" s="10"/>
-      <c r="T28" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="U28" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
       <c r="V28" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="W28" s="10"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G29" s="22">
         <v>1</v>
@@ -3145,55 +3004,51 @@
         <v>0</v>
       </c>
       <c r="I29" s="22"/>
-      <c r="J29" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="J29" s="22"/>
       <c r="K29" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
       <c r="O29" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="P29" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q29" s="22">
+        <v>0</v>
+      </c>
+      <c r="R29" s="22">
+        <v>0</v>
+      </c>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22" t="s">
         <v>247</v>
-      </c>
-      <c r="P29" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q29" s="22">
-        <v>0</v>
-      </c>
-      <c r="R29" s="22">
-        <v>0</v>
-      </c>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="U29" s="22" t="s">
-        <v>249</v>
       </c>
       <c r="V29" s="22"/>
       <c r="W29" s="22"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G30" s="22">
         <v>0</v>
@@ -3202,79 +3057,73 @@
         <v>0</v>
       </c>
       <c r="I30" s="22"/>
-      <c r="J30" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="J30" s="22"/>
       <c r="K30" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
       <c r="O30" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P30" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q30" s="22">
+        <v>0</v>
+      </c>
+      <c r="R30" s="22">
+        <v>0</v>
+      </c>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22" t="s">
         <v>248</v>
-      </c>
-      <c r="Q30" s="22">
-        <v>0</v>
-      </c>
-      <c r="R30" s="22">
-        <v>0</v>
-      </c>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="U30" s="22" t="s">
-        <v>250</v>
       </c>
       <c r="V30" s="22"/>
       <c r="W30" s="22"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="G31" s="11">
-        <v>0</v>
-      </c>
-      <c r="H31" s="11">
-        <v>0</v>
-      </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>274</v>
       </c>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q31" s="11">
         <v>0</v>
@@ -3283,55 +3132,51 @@
         <v>0</v>
       </c>
       <c r="S31" s="11"/>
-      <c r="T31" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="T31" s="11"/>
       <c r="U31" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10" t="s">
         <v>273</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="G32" s="10">
-        <v>0</v>
-      </c>
-      <c r="H32" s="10">
-        <v>0</v>
-      </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q32" s="10">
         <v>0</v>
@@ -3340,33 +3185,31 @@
         <v>0</v>
       </c>
       <c r="S32" s="10"/>
-      <c r="T32" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="T32" s="10"/>
       <c r="U32" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D33" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>234</v>
       </c>
       <c r="G33" s="10">
         <v>-1</v>
@@ -3375,57 +3218,53 @@
         <v>0</v>
       </c>
       <c r="I33" s="10"/>
-      <c r="J33" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="J33" s="10"/>
       <c r="K33" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>0</v>
+      </c>
+      <c r="R33" s="10">
+        <v>0</v>
+      </c>
+      <c r="S33" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="P33" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q33" s="10">
-        <v>0</v>
-      </c>
-      <c r="R33" s="10">
-        <v>0</v>
-      </c>
-      <c r="S33" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="T33" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="T33" s="10"/>
       <c r="U33" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3433,21 +3272,19 @@
       <c r="H34">
         <v>-2</v>
       </c>
-      <c r="J34" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="J34" s="10"/>
       <c r="K34" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L34" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M34" s="10"/>
       <c r="O34" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q34" s="10">
         <v>0</v>
@@ -3456,33 +3293,31 @@
         <v>0</v>
       </c>
       <c r="S34" s="10"/>
-      <c r="T34" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="T34" s="10"/>
       <c r="U34" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E35" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="G35" s="10">
         <v>-99</v>
@@ -3491,18 +3326,13 @@
         <v>0</v>
       </c>
       <c r="I35" s="10"/>
-      <c r="J35" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" t="s">
-        <v>16</v>
-      </c>
+      <c r="J35" s="10"/>
       <c r="M35" s="10"/>
       <c r="O35" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q35" s="10">
         <v>0</v>
@@ -3511,33 +3341,28 @@
         <v>0</v>
       </c>
       <c r="S35" s="10"/>
-      <c r="T35" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="U35" t="s">
-        <v>16</v>
-      </c>
+      <c r="T35" s="10"/>
       <c r="W35" s="10"/>
       <c r="X35" s="22"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G36" s="24">
         <v>0</v>
@@ -3546,60 +3371,52 @@
         <v>0</v>
       </c>
       <c r="I36" s="24"/>
-      <c r="J36" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="24" t="s">
-        <v>16</v>
-      </c>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
       <c r="L36" s="24"/>
       <c r="M36" s="24"/>
       <c r="N36" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="P36" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q36" s="24">
+        <v>0</v>
+      </c>
+      <c r="R36" s="24">
+        <v>0</v>
+      </c>
+      <c r="S36" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="P36" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q36" s="24">
-        <v>0</v>
-      </c>
-      <c r="R36" s="24">
-        <v>0</v>
-      </c>
-      <c r="S36" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="T36" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="U36" s="24" t="s">
-        <v>16</v>
-      </c>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
       <c r="V36" s="24"/>
       <c r="W36" s="24"/>
       <c r="X36" s="22"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="D37" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="E37" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="E37" s="22" t="s">
-        <v>317</v>
-      </c>
       <c r="F37" s="22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G37" s="22">
         <v>0</v>
@@ -3608,12 +3425,8 @@
         <v>0</v>
       </c>
       <c r="I37" s="22"/>
-      <c r="J37" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -3630,22 +3443,22 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B38" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G38" s="22">
         <v>-2</v>
@@ -3654,20 +3467,16 @@
         <v>0</v>
       </c>
       <c r="I38" s="22"/>
-      <c r="J38" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P38" s="22" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Q38" s="22">
         <v>0</v>
@@ -3677,15 +3486,13 @@
       </c>
       <c r="S38" s="22"/>
       <c r="T38" s="22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="U38" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="V38" s="22"/>
-      <c r="W38" s="22" t="s">
-        <v>17</v>
-      </c>
+      <c r="W38" s="22"/>
       <c r="X38" s="22"/>
     </row>
   </sheetData>
@@ -3704,8 +3511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:X6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3738,7 +3545,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -3844,23 +3651,23 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>85</v>
-      </c>
       <c r="G3" s="22">
         <v>0</v>
       </c>
@@ -3868,20 +3675,16 @@
         <v>0</v>
       </c>
       <c r="I3" s="22"/>
-      <c r="J3" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q3" s="22">
         <v>0</v>
@@ -3890,33 +3693,29 @@
         <v>0</v>
       </c>
       <c r="S3" s="22"/>
-      <c r="T3" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
       <c r="V3" s="22"/>
       <c r="W3" s="22"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>78</v>
-      </c>
       <c r="D4" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>83</v>
-      </c>
       <c r="F4" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G4" s="22">
         <v>-3</v>
@@ -3925,20 +3724,18 @@
         <v>0</v>
       </c>
       <c r="I4" s="22"/>
-      <c r="J4" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="J4" s="22"/>
       <c r="K4" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L4" s="22"/>
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
       <c r="O4" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="22">
         <v>0</v>
@@ -3947,33 +3744,29 @@
         <v>0</v>
       </c>
       <c r="S4" s="22"/>
-      <c r="T4" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="U4" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
       <c r="V4" s="22"/>
       <c r="W4" s="22"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="E5" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>83</v>
-      </c>
       <c r="F5" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G5" s="22">
         <v>0</v>
@@ -3982,22 +3775,20 @@
         <v>0</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>16</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J5" s="22"/>
       <c r="K5" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L5" s="22"/>
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
       <c r="O5" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="22">
         <v>0</v>
@@ -4006,33 +3797,31 @@
         <v>0</v>
       </c>
       <c r="S5" s="22"/>
-      <c r="T5" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="T5" s="22"/>
       <c r="U5" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="V5" s="22"/>
       <c r="W5" s="22"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>84</v>
-      </c>
       <c r="F6" s="24" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G6" s="24">
         <v>99</v>
@@ -4041,22 +3830,20 @@
         <v>-1</v>
       </c>
       <c r="I6" s="24"/>
-      <c r="J6" s="24" t="s">
-        <v>16</v>
-      </c>
+      <c r="J6" s="24"/>
       <c r="K6" s="24" t="s">
-        <v>323</v>
+        <v>65</v>
       </c>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
       <c r="N6" s="25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="24">
         <v>0</v>
@@ -4065,11 +3852,9 @@
         <v>0</v>
       </c>
       <c r="S6" s="24"/>
-      <c r="T6" s="24" t="s">
-        <v>16</v>
-      </c>
+      <c r="T6" s="24"/>
       <c r="U6" s="24" t="s">
-        <v>323</v>
+        <v>65</v>
       </c>
       <c r="V6" s="24"/>
       <c r="W6" s="24"/>
@@ -4077,22 +3862,22 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" t="s">
-        <v>106</v>
-      </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4100,17 +3885,14 @@
       <c r="H7">
         <v>-1</v>
       </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
       <c r="K7" t="s">
+        <v>105</v>
+      </c>
+      <c r="O7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" t="s">
         <v>107</v>
-      </c>
-      <c r="O7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P7" t="s">
-        <v>109</v>
       </c>
       <c r="Q7">
         <v>-3</v>
@@ -4118,31 +3900,28 @@
       <c r="R7">
         <v>-1</v>
       </c>
-      <c r="T7" t="s">
-        <v>16</v>
-      </c>
       <c r="U7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G8">
         <v>-3</v>
@@ -4150,20 +3929,17 @@
       <c r="H8">
         <v>-1</v>
       </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
       <c r="K8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -4171,31 +3947,28 @@
       <c r="R8">
         <v>-1</v>
       </c>
-      <c r="T8" t="s">
-        <v>16</v>
-      </c>
       <c r="U8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" t="s">
         <v>160</v>
-      </c>
-      <c r="E9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" t="s">
-        <v>162</v>
       </c>
       <c r="G9">
         <v>-3</v>
@@ -4203,17 +3976,14 @@
       <c r="H9">
         <v>-1</v>
       </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
       <c r="K9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -4221,31 +3991,28 @@
       <c r="R9">
         <v>-1</v>
       </c>
-      <c r="T9" t="s">
-        <v>16</v>
-      </c>
       <c r="U9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4254,31 +4021,31 @@
         <v>-4</v>
       </c>
       <c r="J10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="W10" s="22"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -4286,32 +4053,26 @@
       <c r="H11">
         <v>-2</v>
       </c>
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
-      </c>
       <c r="W11" s="22"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -4319,26 +4080,20 @@
       <c r="H12">
         <v>99</v>
       </c>
-      <c r="J12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
       <c r="L12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q12">
         <v>-3</v>
@@ -4346,37 +4101,31 @@
       <c r="R12">
         <v>99</v>
       </c>
-      <c r="T12" t="s">
-        <v>16</v>
-      </c>
-      <c r="U12" t="s">
-        <v>16</v>
-      </c>
       <c r="V12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="W12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G13" s="22">
         <v>0</v>
@@ -4386,10 +4135,10 @@
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
@@ -4406,22 +4155,22 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E14" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>302</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>304</v>
       </c>
       <c r="G14" s="22">
         <v>-2</v>
@@ -4431,19 +4180,19 @@
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="22" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="22">
         <v>0</v>
@@ -4453,26 +4202,26 @@
       </c>
       <c r="S14" s="22"/>
       <c r="T14" s="22" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="U14" s="22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="V14" s="22"/>
       <c r="W14" s="22"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -4483,15 +4232,11 @@
         <v>0</v>
       </c>
       <c r="I15" s="11"/>
-      <c r="J15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="11"/>
@@ -4506,16 +4251,16 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -4526,12 +4271,8 @@
         <v>0</v>
       </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="14"/>
@@ -4547,16 +4288,16 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -4567,12 +4308,8 @@
         <v>0</v>
       </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="14"/>
@@ -4588,16 +4325,16 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -4608,12 +4345,8 @@
         <v>0</v>
       </c>
       <c r="I18" s="13"/>
-      <c r="J18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="14"/>
@@ -4629,22 +4362,22 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G19" s="22">
         <v>0</v>
@@ -4654,19 +4387,19 @@
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="22" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P19" s="22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Q19" s="22">
         <v>-2</v>
@@ -4676,10 +4409,10 @@
       </c>
       <c r="S19" s="22"/>
       <c r="T19" s="22" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="U19" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="V19" s="22"/>
       <c r="W19" s="22"/>
@@ -4687,22 +4420,22 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E20" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>292</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>294</v>
       </c>
       <c r="G20" s="22">
         <v>-3</v>
@@ -4711,20 +4444,16 @@
         <v>0</v>
       </c>
       <c r="I20" s="22"/>
-      <c r="J20" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="P20" s="22" t="s">
         <v>293</v>
-      </c>
-      <c r="P20" s="22" t="s">
-        <v>295</v>
       </c>
       <c r="Q20" s="22">
         <v>-3</v>
@@ -4733,34 +4462,30 @@
         <v>0</v>
       </c>
       <c r="S20" s="22"/>
-      <c r="T20" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="U20" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
       <c r="V20" s="22"/>
       <c r="W20" s="22"/>
       <c r="X20" s="22"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G21" s="22">
         <v>0</v>
@@ -4769,20 +4494,16 @@
         <v>0</v>
       </c>
       <c r="I21" s="22"/>
-      <c r="J21" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P21" s="22" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Q21" s="22">
         <v>-1</v>
@@ -4791,34 +4512,30 @@
         <v>0</v>
       </c>
       <c r="S21" s="22"/>
-      <c r="T21" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="U21" s="22" t="s">
-        <v>16</v>
-      </c>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
       <c r="V21" s="22"/>
       <c r="W21" s="22"/>
       <c r="X21" s="22"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G22" s="22">
         <v>0</v>
@@ -4827,22 +4544,20 @@
         <v>0</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>16</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="J22" s="22"/>
       <c r="K22" s="22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P22" s="22" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q22" s="22">
         <v>-1</v>
@@ -4851,13 +4566,11 @@
         <v>0</v>
       </c>
       <c r="S22" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="T22" s="22" t="s">
-        <v>16</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="T22" s="22"/>
       <c r="U22" s="22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="V22" s="22"/>
       <c r="W22" s="22"/>
@@ -4890,10 +4603,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>7</v>
@@ -4902,18 +4615,18 @@
         <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
@@ -4930,10 +4643,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" s="11">
         <v>0</v>
@@ -4950,10 +4663,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -4970,10 +4683,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -4990,10 +4703,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
@@ -5010,10 +4723,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C7" s="22">
         <v>0</v>
@@ -5030,10 +4743,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
@@ -5050,10 +4763,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>237</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>239</v>
       </c>
       <c r="C9" s="11">
         <v>0</v>
@@ -5070,10 +4783,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C10" s="22">
         <v>0</v>
@@ -5090,10 +4803,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C11" s="11">
         <v>0</v>
